--- a/Bandeja_A/Bandeja_A.xlsx
+++ b/Bandeja_A/Bandeja_A.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\EUE\Practica2_EUE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MUSE\EUE\Practica2_EUE\Bandeja_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7EA8B3-03A0-408F-8545-8E3CD4D735B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1AC14D-9B86-4B05-9A14-831725B95C43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t xml:space="preserve">Número de iteración </t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t>Masa</t>
   </si>
 </sst>
 </file>
@@ -237,7 +240,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -536,151 +539,157 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -975,173 +984,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AB202"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" colorId="23" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="10" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="14"/>
-    <col min="8" max="8" width="10.33203125" style="48" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" style="29" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" style="29" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" style="29" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="46"/>
-    <col min="14" max="14" width="11.33203125" style="47" customWidth="1"/>
-    <col min="15" max="15" width="3.88671875" customWidth="1"/>
-    <col min="16" max="16" width="2.33203125" customWidth="1"/>
-    <col min="17" max="17" width="2.109375" customWidth="1"/>
+    <col min="1" max="1" width="18" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="12"/>
+    <col min="8" max="8" width="10.28515625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="23" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="23" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="34"/>
+    <col min="14" max="14" width="11.28515625" style="35" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.28515625" customWidth="1"/>
+    <col min="17" max="17" width="2.140625" customWidth="1"/>
     <col min="18" max="18" width="2" customWidth="1"/>
-    <col min="19" max="19" width="6.5546875" customWidth="1"/>
-    <col min="20" max="20" width="10.5546875" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="41"/>
+      <c r="F1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="40" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="38" t="s">
+      <c r="I1" s="43"/>
+      <c r="J1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="32"/>
-    </row>
-    <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="20" t="s">
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="40"/>
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="O2" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="T2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="24" t="s">
+      <c r="U2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="V2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="25" t="s">
+      <c r="X2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="25" t="s">
+      <c r="Y2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="25" t="s">
+      <c r="Z2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="25" t="s">
+      <c r="AA2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="25" t="s">
+      <c r="AB2" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="43" t="str" cm="1">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">INDIRECT(ADDRESS(I3+2,20))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="7">
         <v>1</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="35">
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="26">
         <v>100000000</v>
       </c>
-      <c r="M3" s="44" cm="1">
+      <c r="M3" s="32" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">INDIRECT(ADDRESS(I3+2,21))/(L3*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
         <v>2.1492612071124455</v>
       </c>
-      <c r="N3" s="45" cm="1">
+      <c r="N3" s="33" cm="1">
         <f t="array" aca="1" ref="N3" ca="1">INDIRECT(ADDRESS(I3+2,22))/(L3*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
         <v>2.1515151515151509</v>
       </c>
-      <c r="S3" s="26">
+      <c r="O3" s="33"/>
+      <c r="S3" s="20">
         <v>1</v>
       </c>
-      <c r="T3" s="26" t="s">
+      <c r="T3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="27">
+      <c r="U3" s="21">
         <v>503000000</v>
       </c>
-      <c r="V3" s="27">
+      <c r="V3" s="21">
         <v>572000000</v>
       </c>
       <c r="X3" s="1">
@@ -1160,57 +1174,59 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="H4" s="43" t="str" cm="1">
+      <c r="H4" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">INDIRECT(ADDRESS(I4+2,20))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="13">
         <v>1</v>
       </c>
-      <c r="L4" s="35">
+      <c r="L4" s="26">
         <v>200000000</v>
       </c>
-      <c r="M4" s="44" cm="1">
+      <c r="M4" s="32" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">INDIRECT(ADDRESS(I4+2,21))/(L4*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
         <v>0.57463060355622275</v>
       </c>
-      <c r="N4" s="45" cm="1">
+      <c r="N4" s="33" cm="1">
         <f t="array" aca="1" ref="N4" ca="1">INDIRECT(ADDRESS(I4+2,22))/(L4*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
         <v>0.57575757575757547</v>
       </c>
-      <c r="S4" s="26">
+      <c r="O4" s="33"/>
+      <c r="S4" s="20">
         <v>2</v>
       </c>
-      <c r="T4" s="26"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="T4" s="20"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="H5" s="43" t="str" cm="1">
+      <c r="H5" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">INDIRECT(ADDRESS(I5+2,20))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="13">
         <v>1</v>
       </c>
-      <c r="L5" s="35">
+      <c r="L5" s="26">
         <v>300000000</v>
       </c>
-      <c r="M5" s="44" cm="1">
+      <c r="M5" s="32" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">INDIRECT(ADDRESS(I5+2,21))/(L5*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
         <v>4.9753735704148649E-2</v>
       </c>
-      <c r="N5" s="45" cm="1">
+      <c r="N5" s="33" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">INDIRECT(ADDRESS(I5+2,22))/(L5*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
         <v>5.0505050505050164E-2</v>
       </c>
+      <c r="O5" s="33"/>
       <c r="X5" cm="1">
         <f t="array" aca="1" ref="X5" ca="1">INDIRECT(ADDRESS(3,24))</f>
         <v>1.1000000000000001</v>
@@ -1232,44 +1248,629 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="H6" s="43" t="str" cm="1">
+      <c r="H6" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">INDIRECT(ADDRESS(I6+2,20))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="13">
         <v>1</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="26">
         <v>400000000</v>
       </c>
-      <c r="M6" s="44" cm="1">
+      <c r="M6" s="32" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">INDIRECT(ADDRESS(I6+2,21))/(L6*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
         <v>-0.21268469822188862</v>
       </c>
-      <c r="N6" s="45" cm="1">
+      <c r="N6" s="33" cm="1">
         <f t="array" aca="1" ref="N6" ca="1">INDIRECT(ADDRESS(I6+2,22))/(L6*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
         <v>-0.21212121212121227</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="O6" s="33"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="L7" s="35"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="45"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="L7" s="26"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="L8" s="35"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="45"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="O9" s="35"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="O10" s="33"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="O11" s="33"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="O12" s="33"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="O13" s="33"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="O14" s="33"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="O15" s="33"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="O16" s="35"/>
+    </row>
+    <row r="17" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O17" s="33"/>
+    </row>
+    <row r="18" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O18" s="33"/>
+    </row>
+    <row r="19" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O19" s="33"/>
+    </row>
+    <row r="20" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O20" s="33"/>
+    </row>
+    <row r="21" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O21" s="33"/>
+    </row>
+    <row r="22" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O22" s="33"/>
+    </row>
+    <row r="23" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O23" s="35"/>
+    </row>
+    <row r="24" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O24" s="33"/>
+    </row>
+    <row r="25" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O25" s="33"/>
+    </row>
+    <row r="26" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O26" s="33"/>
+    </row>
+    <row r="27" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O27" s="33"/>
+    </row>
+    <row r="28" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O28" s="33"/>
+    </row>
+    <row r="29" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O29" s="33"/>
+    </row>
+    <row r="30" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O30" s="35"/>
+    </row>
+    <row r="31" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O31" s="33"/>
+    </row>
+    <row r="32" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O32" s="33"/>
+    </row>
+    <row r="33" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O33" s="33"/>
+    </row>
+    <row r="34" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O34" s="33"/>
+    </row>
+    <row r="35" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O35" s="33"/>
+    </row>
+    <row r="36" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O36" s="33"/>
+    </row>
+    <row r="37" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O37" s="35"/>
+    </row>
+    <row r="38" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O38" s="33"/>
+    </row>
+    <row r="39" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O39" s="33"/>
+    </row>
+    <row r="40" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O40" s="33"/>
+    </row>
+    <row r="41" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O41" s="33"/>
+    </row>
+    <row r="42" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O42" s="33"/>
+    </row>
+    <row r="43" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O43" s="33"/>
+    </row>
+    <row r="44" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O44" s="35"/>
+    </row>
+    <row r="45" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O45" s="33"/>
+    </row>
+    <row r="46" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O46" s="33"/>
+    </row>
+    <row r="47" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O47" s="33"/>
+    </row>
+    <row r="48" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O48" s="33"/>
+    </row>
+    <row r="49" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O49" s="33"/>
+    </row>
+    <row r="50" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O50" s="33"/>
+    </row>
+    <row r="51" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O51" s="35"/>
+    </row>
+    <row r="52" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O52" s="33"/>
+    </row>
+    <row r="53" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O53" s="33"/>
+    </row>
+    <row r="54" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O54" s="33"/>
+    </row>
+    <row r="55" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O55" s="33"/>
+    </row>
+    <row r="56" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O56" s="33"/>
+    </row>
+    <row r="57" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O57" s="33"/>
+    </row>
+    <row r="58" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O58" s="35"/>
+    </row>
+    <row r="59" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O59" s="33"/>
+    </row>
+    <row r="60" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O60" s="33"/>
+    </row>
+    <row r="61" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O61" s="33"/>
+    </row>
+    <row r="62" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O62" s="33"/>
+    </row>
+    <row r="63" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O63" s="33"/>
+    </row>
+    <row r="64" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O64" s="33"/>
+    </row>
+    <row r="65" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O65" s="35"/>
+    </row>
+    <row r="66" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O66" s="33"/>
+    </row>
+    <row r="67" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O67" s="33"/>
+    </row>
+    <row r="68" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O68" s="33"/>
+    </row>
+    <row r="69" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O69" s="33"/>
+    </row>
+    <row r="70" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O70" s="33"/>
+    </row>
+    <row r="71" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O71" s="33"/>
+    </row>
+    <row r="72" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O72" s="35"/>
+    </row>
+    <row r="73" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O73" s="33"/>
+    </row>
+    <row r="74" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O74" s="33"/>
+    </row>
+    <row r="75" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O75" s="33"/>
+    </row>
+    <row r="76" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O76" s="33"/>
+    </row>
+    <row r="77" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O77" s="33"/>
+    </row>
+    <row r="78" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O78" s="33"/>
+    </row>
+    <row r="79" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O79" s="35"/>
+    </row>
+    <row r="80" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O80" s="33"/>
+    </row>
+    <row r="81" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O81" s="33"/>
+    </row>
+    <row r="82" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O82" s="33"/>
+    </row>
+    <row r="83" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O83" s="33"/>
+    </row>
+    <row r="84" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O84" s="33"/>
+    </row>
+    <row r="85" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O85" s="33"/>
+    </row>
+    <row r="86" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O86" s="35"/>
+    </row>
+    <row r="87" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O87" s="33"/>
+    </row>
+    <row r="88" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O88" s="33"/>
+    </row>
+    <row r="89" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O89" s="33"/>
+    </row>
+    <row r="90" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O90" s="33"/>
+    </row>
+    <row r="91" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O91" s="33"/>
+    </row>
+    <row r="92" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O92" s="33"/>
+    </row>
+    <row r="93" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O93" s="35"/>
+    </row>
+    <row r="94" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O94" s="33"/>
+    </row>
+    <row r="95" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O95" s="33"/>
+    </row>
+    <row r="96" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O96" s="33"/>
+    </row>
+    <row r="97" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O97" s="33"/>
+    </row>
+    <row r="98" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O98" s="33"/>
+    </row>
+    <row r="99" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O99" s="33"/>
+    </row>
+    <row r="100" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O100" s="35"/>
+    </row>
+    <row r="101" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O101" s="33"/>
+    </row>
+    <row r="102" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O102" s="33"/>
+    </row>
+    <row r="103" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O103" s="33"/>
+    </row>
+    <row r="104" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O104" s="33"/>
+    </row>
+    <row r="105" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O105" s="33"/>
+    </row>
+    <row r="106" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O106" s="33"/>
+    </row>
+    <row r="107" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O107" s="35"/>
+    </row>
+    <row r="108" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O108" s="33"/>
+    </row>
+    <row r="109" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O109" s="33"/>
+    </row>
+    <row r="110" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O110" s="33"/>
+    </row>
+    <row r="111" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O111" s="33"/>
+    </row>
+    <row r="112" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O112" s="33"/>
+    </row>
+    <row r="113" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O113" s="33"/>
+    </row>
+    <row r="114" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O114" s="35"/>
+    </row>
+    <row r="115" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O115" s="33"/>
+    </row>
+    <row r="116" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O116" s="33"/>
+    </row>
+    <row r="117" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O117" s="33"/>
+    </row>
+    <row r="118" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O118" s="33"/>
+    </row>
+    <row r="119" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O119" s="33"/>
+    </row>
+    <row r="120" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O120" s="33"/>
+    </row>
+    <row r="121" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O121" s="35"/>
+    </row>
+    <row r="122" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O122" s="33"/>
+    </row>
+    <row r="123" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O123" s="33"/>
+    </row>
+    <row r="124" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O124" s="33"/>
+    </row>
+    <row r="125" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O125" s="33"/>
+    </row>
+    <row r="126" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O126" s="33"/>
+    </row>
+    <row r="127" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O127" s="33"/>
+    </row>
+    <row r="128" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O128" s="35"/>
+    </row>
+    <row r="129" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O129" s="33"/>
+    </row>
+    <row r="130" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O130" s="33"/>
+    </row>
+    <row r="131" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O131" s="33"/>
+    </row>
+    <row r="132" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O132" s="33"/>
+    </row>
+    <row r="133" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O133" s="33"/>
+    </row>
+    <row r="134" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O134" s="33"/>
+    </row>
+    <row r="135" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O135" s="35"/>
+    </row>
+    <row r="136" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O136" s="33"/>
+    </row>
+    <row r="137" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O137" s="33"/>
+    </row>
+    <row r="138" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O138" s="33"/>
+    </row>
+    <row r="139" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O139" s="33"/>
+    </row>
+    <row r="140" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O140" s="33"/>
+    </row>
+    <row r="141" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O141" s="33"/>
+    </row>
+    <row r="142" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O142" s="35"/>
+    </row>
+    <row r="143" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O143" s="33"/>
+    </row>
+    <row r="144" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O144" s="33"/>
+    </row>
+    <row r="145" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O145" s="33"/>
+    </row>
+    <row r="146" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O146" s="33"/>
+    </row>
+    <row r="147" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O147" s="33"/>
+    </row>
+    <row r="148" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O148" s="33"/>
+    </row>
+    <row r="149" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O149" s="35"/>
+    </row>
+    <row r="150" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O150" s="33"/>
+    </row>
+    <row r="151" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O151" s="33"/>
+    </row>
+    <row r="152" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O152" s="33"/>
+    </row>
+    <row r="153" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O153" s="33"/>
+    </row>
+    <row r="154" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O154" s="33"/>
+    </row>
+    <row r="155" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O155" s="33"/>
+    </row>
+    <row r="156" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O156" s="35"/>
+    </row>
+    <row r="157" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O157" s="33"/>
+    </row>
+    <row r="158" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O158" s="33"/>
+    </row>
+    <row r="159" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O159" s="33"/>
+    </row>
+    <row r="160" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O160" s="33"/>
+    </row>
+    <row r="161" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O161" s="33"/>
+    </row>
+    <row r="162" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O162" s="33"/>
+    </row>
+    <row r="163" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O163" s="35"/>
+    </row>
+    <row r="164" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O164" s="33"/>
+    </row>
+    <row r="165" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O165" s="33"/>
+    </row>
+    <row r="166" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O166" s="33"/>
+    </row>
+    <row r="167" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O167" s="33"/>
+    </row>
+    <row r="168" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O168" s="33"/>
+    </row>
+    <row r="169" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O169" s="33"/>
+    </row>
+    <row r="170" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O170" s="35"/>
+    </row>
+    <row r="171" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O171" s="33"/>
+    </row>
+    <row r="172" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O172" s="33"/>
+    </row>
+    <row r="173" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O173" s="33"/>
+    </row>
+    <row r="174" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O174" s="33"/>
+    </row>
+    <row r="175" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O175" s="33"/>
+    </row>
+    <row r="176" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O176" s="33"/>
+    </row>
+    <row r="177" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O177" s="35"/>
+    </row>
+    <row r="178" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O178" s="33"/>
+    </row>
+    <row r="179" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O179" s="33"/>
+    </row>
+    <row r="180" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O180" s="33"/>
+    </row>
+    <row r="181" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O181" s="33"/>
+    </row>
+    <row r="182" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O182" s="33"/>
+    </row>
+    <row r="183" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O183" s="33"/>
+    </row>
+    <row r="184" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O184" s="35"/>
+    </row>
+    <row r="185" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O185" s="33"/>
+    </row>
+    <row r="186" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O186" s="33"/>
+    </row>
+    <row r="187" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O187" s="33"/>
+    </row>
+    <row r="188" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O188" s="33"/>
+    </row>
+    <row r="189" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O189" s="33"/>
+    </row>
+    <row r="190" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O190" s="33"/>
+    </row>
+    <row r="191" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O191" s="35"/>
+    </row>
+    <row r="192" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O192" s="33"/>
+    </row>
+    <row r="193" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O193" s="33"/>
+    </row>
+    <row r="194" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O194" s="33"/>
+    </row>
+    <row r="195" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O195" s="33"/>
+    </row>
+    <row r="196" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O196" s="33"/>
+    </row>
+    <row r="197" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O197" s="33"/>
+    </row>
+    <row r="198" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O198" s="35"/>
+    </row>
+    <row r="199" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O199" s="33"/>
+    </row>
+    <row r="200" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O200" s="33"/>
+    </row>
+    <row r="201" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O201" s="33"/>
+    </row>
+    <row r="202" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O202" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1277,8 +1878,8 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:N1"/>
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bandeja_A/Bandeja_A.xlsx
+++ b/Bandeja_A/Bandeja_A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MUSE\EUE\Practica2_EUE\Bandeja_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1AC14D-9B86-4B05-9A14-831725B95C43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CD8CA6-0B77-4EC9-9750-DCC64135B49F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14775" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
   <si>
     <t xml:space="preserve">Número de iteración </t>
   </si>
@@ -121,9 +121,6 @@
     <t>sigmau [Pa]</t>
   </si>
   <si>
-    <t>sigmaVM [Pa]</t>
-  </si>
-  <si>
     <t>Label</t>
   </si>
   <si>
@@ -131,13 +128,109 @@
   </si>
   <si>
     <t>Masa</t>
+  </si>
+  <si>
+    <t>10x10</t>
+  </si>
+  <si>
+    <t>26x10</t>
+  </si>
+  <si>
+    <t>10x26</t>
+  </si>
+  <si>
+    <t>.01     .01</t>
+  </si>
+  <si>
+    <t>.026    .01</t>
+  </si>
+  <si>
+    <t>.01     .026</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>I4</t>
+  </si>
+  <si>
+    <t>OMEGA1</t>
+  </si>
+  <si>
+    <t>OMEGA2</t>
+  </si>
+  <si>
+    <t>OMEGA3</t>
+  </si>
+  <si>
+    <t>OMEGA4</t>
+  </si>
+  <si>
+    <t>.015    .002    .021    .024</t>
+  </si>
+  <si>
+    <t>.015    .002    .045    .048</t>
+  </si>
+  <si>
+    <t>.030    .002    .021    .024</t>
+  </si>
+  <si>
+    <t>.015    .004    .018    .024</t>
+  </si>
+  <si>
+    <t>.026    .001    .015    .008</t>
+  </si>
+  <si>
+    <t>.052    .001    .015    .008</t>
+  </si>
+  <si>
+    <t>.026    .001    .030    .016</t>
+  </si>
+  <si>
+    <t>.026    .003    .015    .008</t>
+  </si>
+  <si>
+    <t>Al_3</t>
+  </si>
+  <si>
+    <t>Al_4</t>
+  </si>
+  <si>
+    <t>Al_1</t>
+  </si>
+  <si>
+    <t>Bandeja</t>
+  </si>
+  <si>
+    <t>I5</t>
+  </si>
+  <si>
+    <t>.010    .002   .031    .034</t>
+  </si>
+  <si>
+    <t>VM_X [Pa]</t>
+  </si>
+  <si>
+    <t>VM_Y [Pa]</t>
+  </si>
+  <si>
+    <t>VM_Z [Pa]</t>
+  </si>
+  <si>
+    <t>CFRP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,8 +246,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +338,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB17CC2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -384,17 +489,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -548,35 +642,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -628,7 +729,7 @@
     <xf numFmtId="11" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -640,36 +741,30 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -679,17 +774,65 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,6 +842,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFB17CC2"/>
       <color rgb="FFC7A1D3"/>
       <color rgb="FF83E4E9"/>
       <color rgb="FF33CCFF"/>
@@ -984,178 +1128,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB202"/>
+  <dimension ref="A1:AB203"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" colorId="23" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="8" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="12"/>
-    <col min="8" max="8" width="10.28515625" style="36" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="13" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="23" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="23" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="34"/>
-    <col min="14" max="14" width="11.28515625" style="35" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.28515625" customWidth="1"/>
-    <col min="17" max="17" width="2.140625" customWidth="1"/>
-    <col min="18" max="18" width="2" customWidth="1"/>
+    <col min="1" max="1" width="18" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="10"/>
+    <col min="8" max="8" width="10.28515625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="21" customWidth="1"/>
+    <col min="11" max="13" width="18.28515625" style="21" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="21" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" style="31" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.28515625" customWidth="1"/>
     <col min="19" max="19" width="6.5703125" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" customWidth="1"/>
+    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="41" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="42" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="41"/>
+      <c r="H1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="43"/>
-      <c r="J1" s="46" t="s">
+      <c r="I1" s="39"/>
+      <c r="J1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="J2" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="18" t="s">
+      <c r="S2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="U2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="V2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="X2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="19" t="s">
+      <c r="Y2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="19" t="s">
+      <c r="Z2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="19" t="s">
+      <c r="AA2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="19" t="s">
+      <c r="AB2" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="H3" ca="1">INDIRECT(ADDRESS(I3+2,20))</f>
+      <c r="B3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H3" s="46" t="str">
+        <f>$T$3</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="47">
         <v>1</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="26">
-        <v>100000000</v>
-      </c>
-      <c r="M3" s="32" cm="1">
-        <f t="array" aca="1" ref="M3" ca="1">INDIRECT(ADDRESS(I3+2,21))/(L3*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>2.1492612071124455</v>
-      </c>
-      <c r="N3" s="33" cm="1">
-        <f t="array" aca="1" ref="N3" ca="1">INDIRECT(ADDRESS(I3+2,22))/(L3*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>2.1515151515151509</v>
-      </c>
-      <c r="O3" s="33"/>
-      <c r="S3" s="20">
+      <c r="J3" s="24">
+        <v>120.6829</v>
+      </c>
+      <c r="K3" s="24">
+        <v>353.34300000000002</v>
+      </c>
+      <c r="L3" s="24">
+        <v>19700000</v>
+      </c>
+      <c r="M3" s="24">
+        <v>16600000</v>
+      </c>
+      <c r="N3" s="24">
+        <v>103000000</v>
+      </c>
+      <c r="O3" s="57" cm="1">
+        <f t="array" aca="1" ref="O3" ca="1">INDIRECT(ADDRESS(I3+2,21))/(MAX(L3,M3,N3)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+        <v>2.0575351525363561</v>
+      </c>
+      <c r="P3" s="57" cm="1">
+        <f t="array" aca="1" ref="P3" ca="1">INDIRECT(ADDRESS(I3+2,22))/(MAX(L3,M3,N3)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
+        <v>2.0597234480729627</v>
+      </c>
+      <c r="Q3" s="29">
+        <v>57.69</v>
+      </c>
+      <c r="S3" s="18">
         <v>1</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="T3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="21">
+      <c r="U3" s="19">
         <v>503000000</v>
       </c>
-      <c r="V3" s="21">
+      <c r="V3" s="19">
         <v>572000000</v>
       </c>
       <c r="X3" s="1">
@@ -1174,59 +1350,129 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+    <row r="4" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="H4" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="H4" ca="1">INDIRECT(ADDRESS(I4+2,20))</f>
+      <c r="B4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H4" s="46" t="str">
+        <f>$T$3</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="11">
         <v>1</v>
       </c>
-      <c r="L4" s="26">
-        <v>200000000</v>
-      </c>
-      <c r="M4" s="32" cm="1">
-        <f t="array" aca="1" ref="M4" ca="1">INDIRECT(ADDRESS(I4+2,21))/(L4*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>0.57463060355622275</v>
-      </c>
-      <c r="N4" s="33" cm="1">
-        <f t="array" aca="1" ref="N4" ca="1">INDIRECT(ADDRESS(I4+2,22))/(L4*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>0.57575757575757547</v>
-      </c>
-      <c r="O4" s="33"/>
-      <c r="S4" s="20">
+      <c r="J4" s="58">
+        <v>247.05590000000001</v>
+      </c>
+      <c r="K4" s="56">
+        <v>644.99540000000002</v>
+      </c>
+      <c r="L4" s="24">
+        <v>17100000</v>
+      </c>
+      <c r="M4" s="24">
+        <v>13900000</v>
+      </c>
+      <c r="N4" s="24">
+        <v>35800000</v>
+      </c>
+      <c r="O4" s="57" cm="1">
+        <f t="array" aca="1" ref="O4" ca="1">INDIRECT(ADDRESS(I4+2,21))/(MAX(L4,M4,N4)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+        <v>7.796819014280576</v>
+      </c>
+      <c r="P4" s="57" cm="1">
+        <f t="array" aca="1" ref="P4" ca="1">INDIRECT(ADDRESS(I4+2,22))/(MAX(L4,M4,N4)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
+        <v>7.8031149483663444</v>
+      </c>
+      <c r="Q4" s="29">
+        <v>59.234569999999998</v>
+      </c>
+      <c r="S4" s="18">
         <v>2</v>
       </c>
-      <c r="T4" s="20"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="T4" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="U4" s="19">
+        <v>150000000</v>
+      </c>
+      <c r="V4" s="19">
+        <v>160000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="H5" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="H5" ca="1">INDIRECT(ADDRESS(I5+2,20))</f>
+      <c r="B5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H5" s="46" t="str">
+        <f>$T$3</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="11">
         <v>1</v>
       </c>
-      <c r="L5" s="26">
-        <v>300000000</v>
-      </c>
-      <c r="M5" s="32" cm="1">
-        <f t="array" aca="1" ref="M5" ca="1">INDIRECT(ADDRESS(I5+2,21))/(L5*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>4.9753735704148649E-2</v>
-      </c>
-      <c r="N5" s="33" cm="1">
-        <f t="array" aca="1" ref="N5" ca="1">INDIRECT(ADDRESS(I5+2,22))/(L5*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>5.0505050505050164E-2</v>
-      </c>
-      <c r="O5" s="33"/>
+      <c r="J5" s="56">
+        <v>141.66329999999999</v>
+      </c>
+      <c r="K5" s="56">
+        <v>385.99919999999997</v>
+      </c>
+      <c r="L5" s="24">
+        <v>16100000</v>
+      </c>
+      <c r="M5" s="24">
+        <v>12700000</v>
+      </c>
+      <c r="N5" s="24">
+        <v>75300000</v>
+      </c>
+      <c r="O5" s="57" cm="1">
+        <f t="array" aca="1" ref="O5" ca="1">INDIRECT(ADDRESS(I5+2,21))/(MAX(L5,M5,N5)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+        <v>3.1822857996181222</v>
+      </c>
+      <c r="P5" s="57" cm="1">
+        <f t="array" aca="1" ref="P5" ca="1">INDIRECT(ADDRESS(I5+2,22))/(MAX(L5,M5,N5)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
+        <v>3.1852790856774913</v>
+      </c>
+      <c r="Q5" s="29">
+        <v>59.138280000000002</v>
+      </c>
       <c r="X5" cm="1">
         <f t="array" aca="1" ref="X5" ca="1">INDIRECT(ADDRESS(3,24))</f>
         <v>1.1000000000000001</v>
@@ -1248,639 +1494,1131 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+    <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="H6" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="H6" ca="1">INDIRECT(ADDRESS(I6+2,20))</f>
+      <c r="B6" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="50">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H6" s="46" t="str">
+        <f>$T$3</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="11">
         <v>1</v>
       </c>
-      <c r="L6" s="26">
-        <v>400000000</v>
-      </c>
-      <c r="M6" s="32" cm="1">
-        <f t="array" aca="1" ref="M6" ca="1">INDIRECT(ADDRESS(I6+2,21))/(L6*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>-0.21268469822188862</v>
-      </c>
-      <c r="N6" s="33" cm="1">
-        <f t="array" aca="1" ref="N6" ca="1">INDIRECT(ADDRESS(I6+2,22))/(L6*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>-0.21212121212121227</v>
-      </c>
-      <c r="O6" s="33"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="J6" s="58">
+        <v>159.2441</v>
+      </c>
+      <c r="K6" s="56">
+        <v>395.91849999999999</v>
+      </c>
+      <c r="L6" s="24">
+        <v>14400000</v>
+      </c>
+      <c r="M6" s="24">
+        <v>11300000</v>
+      </c>
+      <c r="N6" s="24">
+        <v>77400000</v>
+      </c>
+      <c r="O6" s="57" cm="1">
+        <f t="array" aca="1" ref="O6" ca="1">INDIRECT(ADDRESS(I6+2,21))/(MAX(L6,M6,N6)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+        <v>3.0688129290858477</v>
+      </c>
+      <c r="P6" s="57" cm="1">
+        <f t="array" aca="1" ref="P6" ca="1">INDIRECT(ADDRESS(I6+2,22))/(MAX(L6,M6,N6)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
+        <v>3.0717250019575593</v>
+      </c>
+      <c r="Q6" s="29">
+        <v>60.67895</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="L7" s="26"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="B7" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="50">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H7" s="46" t="str">
+        <f>$T$3</f>
+        <v>AL 7075 T6</v>
+      </c>
+      <c r="I7" s="51">
+        <v>1</v>
+      </c>
+      <c r="J7" s="58">
+        <v>163.0102</v>
+      </c>
+      <c r="K7" s="56">
+        <v>467.82260000000002</v>
+      </c>
+      <c r="L7" s="24">
+        <v>20000000</v>
+      </c>
+      <c r="M7" s="24">
+        <v>17000000</v>
+      </c>
+      <c r="N7" s="24">
+        <v>68700000</v>
+      </c>
+      <c r="O7" s="57" cm="1">
+        <f t="array" aca="1" ref="O7" ca="1">INDIRECT(ADDRESS(I7+2,21))/(MAX(L7,M7,N7)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+        <v>3.5840774484897322</v>
+      </c>
+      <c r="P7" s="57" cm="1">
+        <f t="array" aca="1" ref="P7" ca="1">INDIRECT(ADDRESS(I7+2,22))/(MAX(L7,M7,N7)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
+        <v>3.5873582991486916</v>
+      </c>
+      <c r="Q7" s="29">
+        <v>57.854390000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="O9" s="35"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="O10" s="33"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="O11" s="33"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="O12" s="33"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="O13" s="33"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="O14" s="33"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="O15" s="33"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="O16" s="35"/>
-    </row>
-    <row r="17" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O17" s="33"/>
-    </row>
-    <row r="18" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O18" s="33"/>
-    </row>
-    <row r="19" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O19" s="33"/>
-    </row>
-    <row r="20" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O20" s="33"/>
-    </row>
-    <row r="21" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O21" s="33"/>
-    </row>
-    <row r="22" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O22" s="33"/>
-    </row>
-    <row r="23" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O23" s="35"/>
-    </row>
-    <row r="24" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O24" s="33"/>
-    </row>
-    <row r="25" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O25" s="33"/>
-    </row>
-    <row r="26" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O26" s="33"/>
-    </row>
-    <row r="27" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O27" s="33"/>
-    </row>
-    <row r="28" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O28" s="33"/>
-    </row>
-    <row r="29" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O29" s="33"/>
-    </row>
-    <row r="30" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O30" s="35"/>
-    </row>
-    <row r="31" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O31" s="33"/>
-    </row>
-    <row r="32" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O32" s="33"/>
-    </row>
-    <row r="33" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O33" s="33"/>
-    </row>
-    <row r="34" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O34" s="33"/>
-    </row>
-    <row r="35" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O35" s="33"/>
-    </row>
-    <row r="36" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O36" s="33"/>
-    </row>
-    <row r="37" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O37" s="35"/>
-    </row>
-    <row r="38" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O38" s="33"/>
-    </row>
-    <row r="39" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O39" s="33"/>
-    </row>
-    <row r="40" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O40" s="33"/>
-    </row>
-    <row r="41" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O41" s="33"/>
-    </row>
-    <row r="42" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O42" s="33"/>
-    </row>
-    <row r="43" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O43" s="33"/>
-    </row>
-    <row r="44" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O44" s="35"/>
-    </row>
-    <row r="45" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O45" s="33"/>
-    </row>
-    <row r="46" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O46" s="33"/>
-    </row>
-    <row r="47" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O47" s="33"/>
-    </row>
-    <row r="48" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O48" s="33"/>
-    </row>
-    <row r="49" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O49" s="33"/>
-    </row>
-    <row r="50" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O50" s="33"/>
-    </row>
-    <row r="51" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O51" s="35"/>
-    </row>
-    <row r="52" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O52" s="33"/>
-    </row>
-    <row r="53" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O53" s="33"/>
-    </row>
-    <row r="54" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O54" s="33"/>
-    </row>
-    <row r="55" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O55" s="33"/>
-    </row>
-    <row r="56" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O56" s="33"/>
-    </row>
-    <row r="57" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O57" s="33"/>
-    </row>
-    <row r="58" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O58" s="35"/>
-    </row>
-    <row r="59" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O59" s="33"/>
-    </row>
-    <row r="60" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O60" s="33"/>
-    </row>
-    <row r="61" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O61" s="33"/>
-    </row>
-    <row r="62" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O62" s="33"/>
-    </row>
-    <row r="63" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O63" s="33"/>
-    </row>
-    <row r="64" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O64" s="33"/>
-    </row>
-    <row r="65" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O65" s="35"/>
-    </row>
-    <row r="66" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O66" s="33"/>
-    </row>
-    <row r="67" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O67" s="33"/>
-    </row>
-    <row r="68" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O68" s="33"/>
-    </row>
-    <row r="69" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O69" s="33"/>
-    </row>
-    <row r="70" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O70" s="33"/>
-    </row>
-    <row r="71" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O71" s="33"/>
-    </row>
-    <row r="72" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O72" s="35"/>
-    </row>
-    <row r="73" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O73" s="33"/>
-    </row>
-    <row r="74" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O74" s="33"/>
-    </row>
-    <row r="75" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O75" s="33"/>
-    </row>
-    <row r="76" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O76" s="33"/>
-    </row>
-    <row r="77" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O77" s="33"/>
-    </row>
-    <row r="78" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O78" s="33"/>
-    </row>
-    <row r="79" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O79" s="35"/>
-    </row>
-    <row r="80" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O80" s="33"/>
-    </row>
-    <row r="81" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O81" s="33"/>
-    </row>
-    <row r="82" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O82" s="33"/>
-    </row>
-    <row r="83" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O83" s="33"/>
-    </row>
-    <row r="84" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O84" s="33"/>
-    </row>
-    <row r="85" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O85" s="33"/>
-    </row>
-    <row r="86" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O86" s="35"/>
-    </row>
-    <row r="87" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O87" s="33"/>
-    </row>
-    <row r="88" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O88" s="33"/>
-    </row>
-    <row r="89" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O89" s="33"/>
-    </row>
-    <row r="90" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O90" s="33"/>
-    </row>
-    <row r="91" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O91" s="33"/>
-    </row>
-    <row r="92" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O92" s="33"/>
-    </row>
-    <row r="93" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O93" s="35"/>
-    </row>
-    <row r="94" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O94" s="33"/>
-    </row>
-    <row r="95" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O95" s="33"/>
-    </row>
-    <row r="96" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O96" s="33"/>
-    </row>
-    <row r="97" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O97" s="33"/>
-    </row>
-    <row r="98" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O98" s="33"/>
-    </row>
-    <row r="99" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O99" s="33"/>
-    </row>
-    <row r="100" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O100" s="35"/>
-    </row>
-    <row r="101" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O101" s="33"/>
-    </row>
-    <row r="102" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O102" s="33"/>
-    </row>
-    <row r="103" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O103" s="33"/>
-    </row>
-    <row r="104" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O104" s="33"/>
-    </row>
-    <row r="105" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O105" s="33"/>
-    </row>
-    <row r="106" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O106" s="33"/>
-    </row>
-    <row r="107" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O107" s="35"/>
-    </row>
-    <row r="108" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O108" s="33"/>
-    </row>
-    <row r="109" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O109" s="33"/>
-    </row>
-    <row r="110" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O110" s="33"/>
-    </row>
-    <row r="111" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O111" s="33"/>
-    </row>
-    <row r="112" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O112" s="33"/>
-    </row>
-    <row r="113" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O113" s="33"/>
-    </row>
-    <row r="114" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O114" s="35"/>
-    </row>
-    <row r="115" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O115" s="33"/>
-    </row>
-    <row r="116" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O116" s="33"/>
-    </row>
-    <row r="117" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O117" s="33"/>
-    </row>
-    <row r="118" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O118" s="33"/>
-    </row>
-    <row r="119" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O119" s="33"/>
-    </row>
-    <row r="120" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O120" s="33"/>
-    </row>
-    <row r="121" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O121" s="35"/>
-    </row>
-    <row r="122" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O122" s="33"/>
-    </row>
-    <row r="123" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O123" s="33"/>
-    </row>
-    <row r="124" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O124" s="33"/>
-    </row>
-    <row r="125" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O125" s="33"/>
-    </row>
-    <row r="126" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O126" s="33"/>
-    </row>
-    <row r="127" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O127" s="33"/>
-    </row>
-    <row r="128" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O128" s="35"/>
-    </row>
-    <row r="129" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O129" s="33"/>
-    </row>
-    <row r="130" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O130" s="33"/>
-    </row>
-    <row r="131" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O131" s="33"/>
-    </row>
-    <row r="132" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O132" s="33"/>
-    </row>
-    <row r="133" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O133" s="33"/>
-    </row>
-    <row r="134" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O134" s="33"/>
-    </row>
-    <row r="135" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O135" s="35"/>
-    </row>
-    <row r="136" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O136" s="33"/>
-    </row>
-    <row r="137" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O137" s="33"/>
-    </row>
-    <row r="138" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O138" s="33"/>
-    </row>
-    <row r="139" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O139" s="33"/>
-    </row>
-    <row r="140" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O140" s="33"/>
-    </row>
-    <row r="141" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O141" s="33"/>
-    </row>
-    <row r="142" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O142" s="35"/>
-    </row>
-    <row r="143" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O143" s="33"/>
-    </row>
-    <row r="144" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O144" s="33"/>
-    </row>
-    <row r="145" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O145" s="33"/>
-    </row>
-    <row r="146" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O146" s="33"/>
-    </row>
-    <row r="147" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O147" s="33"/>
-    </row>
-    <row r="148" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O148" s="33"/>
-    </row>
-    <row r="149" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O149" s="35"/>
-    </row>
-    <row r="150" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O150" s="33"/>
-    </row>
-    <row r="151" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O151" s="33"/>
-    </row>
-    <row r="152" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O152" s="33"/>
-    </row>
-    <row r="153" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O153" s="33"/>
-    </row>
-    <row r="154" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O154" s="33"/>
-    </row>
-    <row r="155" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O155" s="33"/>
-    </row>
-    <row r="156" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O156" s="35"/>
-    </row>
-    <row r="157" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O157" s="33"/>
-    </row>
-    <row r="158" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O158" s="33"/>
-    </row>
-    <row r="159" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O159" s="33"/>
-    </row>
-    <row r="160" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O160" s="33"/>
-    </row>
-    <row r="161" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O161" s="33"/>
-    </row>
-    <row r="162" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O162" s="33"/>
-    </row>
-    <row r="163" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O163" s="35"/>
-    </row>
-    <row r="164" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O164" s="33"/>
-    </row>
-    <row r="165" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O165" s="33"/>
-    </row>
-    <row r="166" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O166" s="33"/>
-    </row>
-    <row r="167" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O167" s="33"/>
-    </row>
-    <row r="168" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O168" s="33"/>
-    </row>
-    <row r="169" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O169" s="33"/>
-    </row>
-    <row r="170" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O170" s="35"/>
-    </row>
-    <row r="171" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O171" s="33"/>
-    </row>
-    <row r="172" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O172" s="33"/>
-    </row>
-    <row r="173" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O173" s="33"/>
-    </row>
-    <row r="174" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O174" s="33"/>
-    </row>
-    <row r="175" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O175" s="33"/>
-    </row>
-    <row r="176" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O176" s="33"/>
-    </row>
-    <row r="177" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O177" s="35"/>
-    </row>
-    <row r="178" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O178" s="33"/>
-    </row>
-    <row r="179" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O179" s="33"/>
-    </row>
-    <row r="180" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O180" s="33"/>
-    </row>
-    <row r="181" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O181" s="33"/>
-    </row>
-    <row r="182" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O182" s="33"/>
-    </row>
-    <row r="183" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O183" s="33"/>
-    </row>
-    <row r="184" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O184" s="35"/>
-    </row>
-    <row r="185" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O185" s="33"/>
-    </row>
-    <row r="186" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O186" s="33"/>
-    </row>
-    <row r="187" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O187" s="33"/>
-    </row>
-    <row r="188" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O188" s="33"/>
-    </row>
-    <row r="189" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O189" s="33"/>
-    </row>
-    <row r="190" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O190" s="33"/>
-    </row>
-    <row r="191" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O191" s="35"/>
-    </row>
-    <row r="192" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O192" s="33"/>
-    </row>
-    <row r="193" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O193" s="33"/>
-    </row>
-    <row r="194" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O194" s="33"/>
-    </row>
-    <row r="195" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O195" s="33"/>
-    </row>
-    <row r="196" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O196" s="33"/>
-    </row>
-    <row r="197" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O197" s="33"/>
-    </row>
-    <row r="198" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O198" s="35"/>
-    </row>
-    <row r="199" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O199" s="33"/>
-    </row>
-    <row r="200" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O200" s="33"/>
-    </row>
-    <row r="201" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O201" s="33"/>
-    </row>
-    <row r="202" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O202" s="33"/>
+      <c r="B8" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H8" s="46" t="str">
+        <f>$T$3</f>
+        <v>AL 7075 T6</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="57" t="e" cm="1">
+        <f t="array" aca="1" ref="O8" ca="1">INDIRECT(ADDRESS(I8+2,21))/(MAX(L8,M8,N8)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P8" s="57" t="e" cm="1">
+        <f t="array" aca="1" ref="P8" ca="1">INDIRECT(ADDRESS(I8+2,22))/(MAX(L8,M8,N8)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q8" s="29"/>
+    </row>
+    <row r="9" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="46" t="str">
+        <f>$T$3</f>
+        <v>AL 7075 T6</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1</v>
+      </c>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="57" t="e" cm="1">
+        <f t="array" aca="1" ref="O9" ca="1">INDIRECT(ADDRESS(I9+2,21))/(MAX(L9,M9,N9)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P9" s="57" t="e" cm="1">
+        <f t="array" aca="1" ref="P9" ca="1">INDIRECT(ADDRESS(I9+2,22))/(MAX(L9,M9,N9)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q9" s="29"/>
+    </row>
+    <row r="10" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H10" s="46" t="str">
+        <f>$T$3</f>
+        <v>AL 7075 T6</v>
+      </c>
+      <c r="I10" s="11">
+        <v>1</v>
+      </c>
+      <c r="O10" s="57" t="e" cm="1">
+        <f t="array" aca="1" ref="O10" ca="1">INDIRECT(ADDRESS(I10+2,21))/(MAX(L10,M10,N10)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P10" s="57" t="e" cm="1">
+        <f t="array" aca="1" ref="P10" ca="1">INDIRECT(ADDRESS(I10+2,22))/(MAX(L10,M10,N10)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q10" s="31"/>
+    </row>
+    <row r="11" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H11" s="46" t="str">
+        <f>$T$3</f>
+        <v>AL 7075 T6</v>
+      </c>
+      <c r="I11" s="51">
+        <v>1</v>
+      </c>
+      <c r="O11" s="57" t="e" cm="1">
+        <f t="array" aca="1" ref="O11" ca="1">INDIRECT(ADDRESS(I11+2,21))/(MAX(L11,M11,N11)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P11" s="57" t="e" cm="1">
+        <f t="array" aca="1" ref="P11" ca="1">INDIRECT(ADDRESS(I11+2,22))/(MAX(L11,M11,N11)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q11" s="29"/>
+    </row>
+    <row r="12" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="52">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H12" s="46" t="str">
+        <f>$T$3</f>
+        <v>AL 7075 T6</v>
+      </c>
+      <c r="I12" s="47">
+        <v>1</v>
+      </c>
+      <c r="J12" s="56">
+        <v>123.172</v>
+      </c>
+      <c r="K12" s="56">
+        <v>344.66109999999998</v>
+      </c>
+      <c r="L12" s="56">
+        <v>17900000</v>
+      </c>
+      <c r="M12" s="56">
+        <v>15400000</v>
+      </c>
+      <c r="N12" s="56">
+        <v>103000000</v>
+      </c>
+      <c r="O12" s="57" cm="1">
+        <f t="array" aca="1" ref="O12" ca="1">INDIRECT(ADDRESS(I12+2,21))/(MAX(L12,M12,N12)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+        <v>2.0575351525363561</v>
+      </c>
+      <c r="P12" s="57" cm="1">
+        <f t="array" aca="1" ref="P12" ca="1">INDIRECT(ADDRESS(I12+2,22))/(MAX(L12,M12,N12)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
+        <v>2.0597234480729627</v>
+      </c>
+      <c r="Q12" s="29">
+        <v>58.705399999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="50">
+        <v>1E-3</v>
+      </c>
+      <c r="H13" s="46" t="str">
+        <f>$T$3</f>
+        <v>AL 7075 T6</v>
+      </c>
+      <c r="I13" s="51">
+        <v>1</v>
+      </c>
+      <c r="J13" s="56">
+        <v>114.1709</v>
+      </c>
+      <c r="K13" s="56">
+        <v>360.08620000000002</v>
+      </c>
+      <c r="L13" s="56">
+        <v>31100000</v>
+      </c>
+      <c r="M13" s="56">
+        <v>24500000</v>
+      </c>
+      <c r="N13" s="56">
+        <v>140000000</v>
+      </c>
+      <c r="O13" s="57" cm="1">
+        <f t="array" aca="1" ref="O13" ca="1">INDIRECT(ADDRESS(I13+2,21))/(MAX(L13,M13,N13)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+        <v>1.2494722907946043</v>
+      </c>
+      <c r="P13" s="57" cm="1">
+        <f t="array" aca="1" ref="P13" ca="1">INDIRECT(ADDRESS(I13+2,22))/(MAX(L13,M13,N13)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
+        <v>1.2510822510822508</v>
+      </c>
+      <c r="Q13" s="29">
+        <v>55.670909999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="52">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H14" s="46" t="str">
+        <f>$T$3</f>
+        <v>AL 7075 T6</v>
+      </c>
+      <c r="I14" s="47">
+        <v>1</v>
+      </c>
+      <c r="J14" s="56">
+        <v>120.8005</v>
+      </c>
+      <c r="K14" s="56">
+        <v>296.85480000000001</v>
+      </c>
+      <c r="L14" s="56">
+        <v>20000000</v>
+      </c>
+      <c r="M14" s="56">
+        <v>16900000</v>
+      </c>
+      <c r="N14" s="56">
+        <v>104000000</v>
+      </c>
+      <c r="O14" s="57" cm="1">
+        <f t="array" aca="1" ref="O14" ca="1">INDIRECT(ADDRESS(I14+2,21))/(MAX(L14,M14,N14)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+        <v>2.0281357760696603</v>
+      </c>
+      <c r="P14" s="57" cm="1">
+        <f t="array" aca="1" ref="P14" ca="1">INDIRECT(ADDRESS(I14+2,22))/(MAX(L14,M14,N14)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
+        <v>2.0303030303030303</v>
+      </c>
+      <c r="Q14" s="29">
+        <v>58.772889999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>13</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="50">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H15" s="46" t="str">
+        <f>$T$3</f>
+        <v>AL 7075 T6</v>
+      </c>
+      <c r="I15" s="51">
+        <v>1</v>
+      </c>
+      <c r="J15" s="56">
+        <v>121.4365</v>
+      </c>
+      <c r="K15" s="56">
+        <v>297.65980000000002</v>
+      </c>
+      <c r="L15" s="56">
+        <v>19700000</v>
+      </c>
+      <c r="M15" s="56">
+        <v>16700000</v>
+      </c>
+      <c r="N15" s="56">
+        <v>104000000</v>
+      </c>
+      <c r="O15" s="57" cm="1">
+        <f t="array" aca="1" ref="O15" ca="1">INDIRECT(ADDRESS(I15+2,21))/(MAX(L15,M15,N15)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+        <v>2.0281357760696603</v>
+      </c>
+      <c r="P15" s="57" cm="1">
+        <f t="array" aca="1" ref="P15" ca="1">INDIRECT(ADDRESS(I15+2,22))/(MAX(L15,M15,N15)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
+        <v>2.0303030303030303</v>
+      </c>
+      <c r="Q15" s="29">
+        <v>58.772889999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="59">
+        <v>14</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="50">
+        <v>1E-3</v>
+      </c>
+      <c r="H16" s="46" t="str">
+        <f>$T$3</f>
+        <v>AL 7075 T6</v>
+      </c>
+      <c r="I16" s="51">
+        <v>1</v>
+      </c>
+      <c r="J16" s="58">
+        <v>154.55680000000001</v>
+      </c>
+      <c r="K16" s="56">
+        <v>455.72899999999998</v>
+      </c>
+      <c r="L16" s="56">
+        <v>31800000</v>
+      </c>
+      <c r="M16" s="56">
+        <v>25000000</v>
+      </c>
+      <c r="N16" s="56">
+        <v>103000000</v>
+      </c>
+      <c r="O16" s="57" cm="1">
+        <f t="array" aca="1" ref="O16" ca="1">INDIRECT(ADDRESS(I16+2,21))/(MAX(L16,M16,N16)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+        <v>2.0575351525363561</v>
+      </c>
+      <c r="P16" s="57" cm="1">
+        <f t="array" aca="1" ref="P16" ca="1">INDIRECT(ADDRESS(I16+2,22))/(MAX(L16,M16,N16)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
+        <v>2.0597234480729627</v>
+      </c>
+      <c r="Q16" s="29">
+        <v>55.831389999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q17" s="31"/>
+    </row>
+    <row r="18" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q18" s="29"/>
+    </row>
+    <row r="19" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q19" s="29"/>
+    </row>
+    <row r="20" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q20" s="29"/>
+    </row>
+    <row r="21" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q21" s="29"/>
+    </row>
+    <row r="22" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q22" s="29"/>
+    </row>
+    <row r="23" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q23" s="29"/>
+    </row>
+    <row r="24" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q24" s="31"/>
+    </row>
+    <row r="25" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q25" s="29"/>
+    </row>
+    <row r="26" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q26" s="29"/>
+    </row>
+    <row r="27" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q27" s="29"/>
+    </row>
+    <row r="28" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q28" s="29"/>
+    </row>
+    <row r="29" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q29" s="29"/>
+    </row>
+    <row r="30" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q30" s="29"/>
+    </row>
+    <row r="31" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q31" s="31"/>
+    </row>
+    <row r="32" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q32" s="29"/>
+    </row>
+    <row r="33" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q33" s="29"/>
+    </row>
+    <row r="34" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q34" s="29"/>
+    </row>
+    <row r="35" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q35" s="29"/>
+    </row>
+    <row r="36" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q36" s="29"/>
+    </row>
+    <row r="37" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q37" s="29"/>
+    </row>
+    <row r="38" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q38" s="31"/>
+    </row>
+    <row r="39" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q39" s="29"/>
+    </row>
+    <row r="40" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q40" s="29"/>
+    </row>
+    <row r="41" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q41" s="29"/>
+    </row>
+    <row r="42" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q42" s="29"/>
+    </row>
+    <row r="43" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q43" s="29"/>
+    </row>
+    <row r="44" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q44" s="29"/>
+    </row>
+    <row r="45" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q45" s="31"/>
+    </row>
+    <row r="46" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q46" s="29"/>
+    </row>
+    <row r="47" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q47" s="29"/>
+    </row>
+    <row r="48" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q48" s="29"/>
+    </row>
+    <row r="49" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q49" s="29"/>
+    </row>
+    <row r="50" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q50" s="29"/>
+    </row>
+    <row r="51" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q51" s="29"/>
+    </row>
+    <row r="52" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q52" s="31"/>
+    </row>
+    <row r="53" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q53" s="29"/>
+    </row>
+    <row r="54" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q54" s="29"/>
+    </row>
+    <row r="55" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q55" s="29"/>
+    </row>
+    <row r="56" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q56" s="29"/>
+    </row>
+    <row r="57" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q57" s="29"/>
+    </row>
+    <row r="58" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q58" s="29"/>
+    </row>
+    <row r="59" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q59" s="31"/>
+    </row>
+    <row r="60" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q60" s="29"/>
+    </row>
+    <row r="61" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q61" s="29"/>
+    </row>
+    <row r="62" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q62" s="29"/>
+    </row>
+    <row r="63" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q63" s="29"/>
+    </row>
+    <row r="64" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q64" s="29"/>
+    </row>
+    <row r="65" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q65" s="29"/>
+    </row>
+    <row r="66" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q66" s="31"/>
+    </row>
+    <row r="67" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q67" s="29"/>
+    </row>
+    <row r="68" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q68" s="29"/>
+    </row>
+    <row r="69" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q69" s="29"/>
+    </row>
+    <row r="70" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q70" s="29"/>
+    </row>
+    <row r="71" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q71" s="29"/>
+    </row>
+    <row r="72" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q72" s="29"/>
+    </row>
+    <row r="73" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q73" s="31"/>
+    </row>
+    <row r="74" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q74" s="29"/>
+    </row>
+    <row r="75" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q75" s="29"/>
+    </row>
+    <row r="76" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q76" s="29"/>
+    </row>
+    <row r="77" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q77" s="29"/>
+    </row>
+    <row r="78" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q78" s="29"/>
+    </row>
+    <row r="79" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q79" s="29"/>
+    </row>
+    <row r="80" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q80" s="31"/>
+    </row>
+    <row r="81" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q81" s="29"/>
+    </row>
+    <row r="82" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q82" s="29"/>
+    </row>
+    <row r="83" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q83" s="29"/>
+    </row>
+    <row r="84" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q84" s="29"/>
+    </row>
+    <row r="85" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q85" s="29"/>
+    </row>
+    <row r="86" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q86" s="29"/>
+    </row>
+    <row r="87" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q87" s="31"/>
+    </row>
+    <row r="88" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q88" s="29"/>
+    </row>
+    <row r="89" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q89" s="29"/>
+    </row>
+    <row r="90" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q90" s="29"/>
+    </row>
+    <row r="91" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q91" s="29"/>
+    </row>
+    <row r="92" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q92" s="29"/>
+    </row>
+    <row r="93" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q93" s="29"/>
+    </row>
+    <row r="94" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q94" s="31"/>
+    </row>
+    <row r="95" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q95" s="29"/>
+    </row>
+    <row r="96" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q96" s="29"/>
+    </row>
+    <row r="97" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q97" s="29"/>
+    </row>
+    <row r="98" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q98" s="29"/>
+    </row>
+    <row r="99" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q99" s="29"/>
+    </row>
+    <row r="100" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q100" s="29"/>
+    </row>
+    <row r="101" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q101" s="31"/>
+    </row>
+    <row r="102" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q102" s="29"/>
+    </row>
+    <row r="103" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q103" s="29"/>
+    </row>
+    <row r="104" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q104" s="29"/>
+    </row>
+    <row r="105" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q105" s="29"/>
+    </row>
+    <row r="106" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q106" s="29"/>
+    </row>
+    <row r="107" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q107" s="29"/>
+    </row>
+    <row r="108" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q108" s="31"/>
+    </row>
+    <row r="109" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q109" s="29"/>
+    </row>
+    <row r="110" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q110" s="29"/>
+    </row>
+    <row r="111" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q111" s="29"/>
+    </row>
+    <row r="112" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q112" s="29"/>
+    </row>
+    <row r="113" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q113" s="29"/>
+    </row>
+    <row r="114" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q114" s="29"/>
+    </row>
+    <row r="115" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q115" s="31"/>
+    </row>
+    <row r="116" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q116" s="29"/>
+    </row>
+    <row r="117" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q117" s="29"/>
+    </row>
+    <row r="118" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q118" s="29"/>
+    </row>
+    <row r="119" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q119" s="29"/>
+    </row>
+    <row r="120" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q120" s="29"/>
+    </row>
+    <row r="121" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q121" s="29"/>
+    </row>
+    <row r="122" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q122" s="31"/>
+    </row>
+    <row r="123" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q123" s="29"/>
+    </row>
+    <row r="124" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q124" s="29"/>
+    </row>
+    <row r="125" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q125" s="29"/>
+    </row>
+    <row r="126" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q126" s="29"/>
+    </row>
+    <row r="127" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q127" s="29"/>
+    </row>
+    <row r="128" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q128" s="29"/>
+    </row>
+    <row r="129" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q129" s="31"/>
+    </row>
+    <row r="130" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q130" s="29"/>
+    </row>
+    <row r="131" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q131" s="29"/>
+    </row>
+    <row r="132" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q132" s="29"/>
+    </row>
+    <row r="133" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q133" s="29"/>
+    </row>
+    <row r="134" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q134" s="29"/>
+    </row>
+    <row r="135" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q135" s="29"/>
+    </row>
+    <row r="136" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q136" s="31"/>
+    </row>
+    <row r="137" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q137" s="29"/>
+    </row>
+    <row r="138" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q138" s="29"/>
+    </row>
+    <row r="139" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q139" s="29"/>
+    </row>
+    <row r="140" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q140" s="29"/>
+    </row>
+    <row r="141" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q141" s="29"/>
+    </row>
+    <row r="142" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q142" s="29"/>
+    </row>
+    <row r="143" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q143" s="31"/>
+    </row>
+    <row r="144" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q144" s="29"/>
+    </row>
+    <row r="145" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q145" s="29"/>
+    </row>
+    <row r="146" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q146" s="29"/>
+    </row>
+    <row r="147" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q147" s="29"/>
+    </row>
+    <row r="148" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q148" s="29"/>
+    </row>
+    <row r="149" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q149" s="29"/>
+    </row>
+    <row r="150" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q150" s="31"/>
+    </row>
+    <row r="151" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q151" s="29"/>
+    </row>
+    <row r="152" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q152" s="29"/>
+    </row>
+    <row r="153" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q153" s="29"/>
+    </row>
+    <row r="154" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q154" s="29"/>
+    </row>
+    <row r="155" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q155" s="29"/>
+    </row>
+    <row r="156" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q156" s="29"/>
+    </row>
+    <row r="157" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q157" s="31"/>
+    </row>
+    <row r="158" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q158" s="29"/>
+    </row>
+    <row r="159" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q159" s="29"/>
+    </row>
+    <row r="160" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q160" s="29"/>
+    </row>
+    <row r="161" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q161" s="29"/>
+    </row>
+    <row r="162" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q162" s="29"/>
+    </row>
+    <row r="163" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q163" s="29"/>
+    </row>
+    <row r="164" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q164" s="31"/>
+    </row>
+    <row r="165" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q165" s="29"/>
+    </row>
+    <row r="166" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q166" s="29"/>
+    </row>
+    <row r="167" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q167" s="29"/>
+    </row>
+    <row r="168" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q168" s="29"/>
+    </row>
+    <row r="169" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q169" s="29"/>
+    </row>
+    <row r="170" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q170" s="29"/>
+    </row>
+    <row r="171" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q171" s="31"/>
+    </row>
+    <row r="172" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q172" s="29"/>
+    </row>
+    <row r="173" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q173" s="29"/>
+    </row>
+    <row r="174" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q174" s="29"/>
+    </row>
+    <row r="175" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q175" s="29"/>
+    </row>
+    <row r="176" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q176" s="29"/>
+    </row>
+    <row r="177" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q177" s="29"/>
+    </row>
+    <row r="178" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q178" s="31"/>
+    </row>
+    <row r="179" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q179" s="29"/>
+    </row>
+    <row r="180" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q180" s="29"/>
+    </row>
+    <row r="181" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q181" s="29"/>
+    </row>
+    <row r="182" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q182" s="29"/>
+    </row>
+    <row r="183" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q183" s="29"/>
+    </row>
+    <row r="184" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q184" s="29"/>
+    </row>
+    <row r="185" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q185" s="31"/>
+    </row>
+    <row r="186" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q186" s="29"/>
+    </row>
+    <row r="187" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q187" s="29"/>
+    </row>
+    <row r="188" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q188" s="29"/>
+    </row>
+    <row r="189" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q189" s="29"/>
+    </row>
+    <row r="190" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q190" s="29"/>
+    </row>
+    <row r="191" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q191" s="29"/>
+    </row>
+    <row r="192" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q192" s="31"/>
+    </row>
+    <row r="193" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q193" s="29"/>
+    </row>
+    <row r="194" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q194" s="29"/>
+    </row>
+    <row r="195" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q195" s="29"/>
+    </row>
+    <row r="196" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q196" s="29"/>
+    </row>
+    <row r="197" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q197" s="29"/>
+    </row>
+    <row r="198" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q198" s="29"/>
+    </row>
+    <row r="199" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q199" s="31"/>
+    </row>
+    <row r="200" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q200" s="29"/>
+    </row>
+    <row r="201" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q201" s="29"/>
+    </row>
+    <row r="202" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q202" s="29"/>
+    </row>
+    <row r="203" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q203" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="J1:Q1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:O1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Bandeja_A/Bandeja_A.xlsx
+++ b/Bandeja_A/Bandeja_A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MUSE\EUE\Practica2_EUE\Bandeja_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CD8CA6-0B77-4EC9-9750-DCC64135B49F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D445C2D7-B8D2-4467-8DF0-C958ED29E00A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14775" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="60">
   <si>
     <t xml:space="preserve">Número de iteración </t>
   </si>
@@ -224,6 +224,18 @@
   </si>
   <si>
     <t>CFRP</t>
+  </si>
+  <si>
+    <t>3,52E*07</t>
+  </si>
+  <si>
+    <t>comp</t>
+  </si>
+  <si>
+    <t>comp2</t>
+  </si>
+  <si>
+    <t>comp3</t>
   </si>
 </sst>
 </file>
@@ -253,7 +265,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,6 +356,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF2929"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -659,7 +689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -714,9 +744,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -753,6 +780,54 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -780,58 +855,34 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -843,6 +894,7 @@
   <colors>
     <mruColors>
       <color rgb="FFB17CC2"/>
+      <color rgb="FFFF2929"/>
       <color rgb="FFC7A1D3"/>
       <color rgb="FF83E4E9"/>
       <color rgb="FF33CCFF"/>
@@ -851,7 +903,6 @@
       <color rgb="FFECECA6"/>
       <color rgb="FFFFFF00"/>
       <color rgb="FFFF9966"/>
-      <color rgb="FFFA7A60"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1128,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB203"/>
+  <dimension ref="A1:AB202"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" colorId="23" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="B10" colorId="23" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,13 +1194,13 @@
     <col min="5" max="5" width="20.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" style="10" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" style="10"/>
-    <col min="8" max="8" width="10.28515625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="31" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="21" customWidth="1"/>
-    <col min="11" max="13" width="18.28515625" style="21" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="21" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="20" customWidth="1"/>
+    <col min="11" max="13" width="18.28515625" style="20" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="20" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" style="30" customWidth="1"/>
     <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="2.28515625" customWidth="1"/>
     <col min="19" max="19" width="6.5703125" customWidth="1"/>
@@ -1159,38 +1210,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="40" t="s">
+      <c r="E1" s="52"/>
+      <c r="F1" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="38" t="s">
+      <c r="G1" s="56"/>
+      <c r="H1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="42" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
+      <c r="A2" s="51"/>
       <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
@@ -1206,37 +1257,37 @@
       <c r="F2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="Q2" s="22" t="s">
         <v>23</v>
       </c>
       <c r="S2" s="16" t="s">
@@ -1268,19 +1319,19 @@
       </c>
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="66">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="33" t="s">
         <v>38</v>
       </c>
       <c r="F3" s="10" t="s">
@@ -1289,37 +1340,37 @@
       <c r="G3" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H3" s="46" t="str">
-        <f>$T$3</f>
+      <c r="H3" s="34" t="str">
+        <f t="shared" ref="H3:H15" si="0">$T$3</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I3" s="47">
+      <c r="I3" s="35">
         <v>1</v>
       </c>
-      <c r="J3" s="24">
-        <v>120.6829</v>
-      </c>
-      <c r="K3" s="24">
-        <v>353.34300000000002</v>
-      </c>
-      <c r="L3" s="24">
-        <v>19700000</v>
-      </c>
-      <c r="M3" s="24">
-        <v>16600000</v>
-      </c>
-      <c r="N3" s="24">
-        <v>103000000</v>
-      </c>
-      <c r="O3" s="57" cm="1">
+      <c r="J3" s="23">
+        <v>128.0668</v>
+      </c>
+      <c r="K3" s="23">
+        <v>371.87880000000001</v>
+      </c>
+      <c r="L3" s="23">
+        <v>208000000</v>
+      </c>
+      <c r="M3" s="23">
+        <v>17700000</v>
+      </c>
+      <c r="N3" s="23">
+        <v>98300000</v>
+      </c>
+      <c r="O3" s="59" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">INDIRECT(ADDRESS(I3+2,21))/(MAX(L3,M3,N3)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>2.0575351525363561</v>
-      </c>
-      <c r="P3" s="57" cm="1">
+        <v>0.51406788803483017</v>
+      </c>
+      <c r="P3" s="59" cm="1">
         <f t="array" aca="1" ref="P3" ca="1">INDIRECT(ADDRESS(I3+2,22))/(MAX(L3,M3,N3)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>2.0597234480729627</v>
-      </c>
-      <c r="Q3" s="29">
+        <v>0.51515151515151514</v>
+      </c>
+      <c r="Q3" s="28">
         <v>57.69</v>
       </c>
       <c r="S3" s="18">
@@ -1372,37 +1423,37 @@
       <c r="G4" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H4" s="46" t="str">
-        <f>$T$3</f>
+      <c r="H4" s="34" t="str">
+        <f t="shared" si="0"/>
         <v>AL 7075 T6</v>
       </c>
       <c r="I4" s="11">
         <v>1</v>
       </c>
       <c r="J4" s="58">
-        <v>247.05590000000001</v>
-      </c>
-      <c r="K4" s="56">
-        <v>644.99540000000002</v>
-      </c>
-      <c r="L4" s="24">
-        <v>17100000</v>
-      </c>
-      <c r="M4" s="24">
-        <v>13900000</v>
-      </c>
-      <c r="N4" s="24">
-        <v>35800000</v>
-      </c>
-      <c r="O4" s="57" cm="1">
+        <v>253.5805</v>
+      </c>
+      <c r="K4" s="43">
+        <v>655.48929999999996</v>
+      </c>
+      <c r="L4" s="23">
+        <v>17600000</v>
+      </c>
+      <c r="M4" s="23">
+        <v>14400000</v>
+      </c>
+      <c r="N4" s="23">
+        <v>35300000</v>
+      </c>
+      <c r="O4" s="44" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">INDIRECT(ADDRESS(I4+2,21))/(MAX(L4,M4,N4)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>7.796819014280576</v>
-      </c>
-      <c r="P4" s="57" cm="1">
+        <v>7.9214198501769015</v>
+      </c>
+      <c r="P4" s="44" cm="1">
         <f t="array" aca="1" ref="P4" ca="1">INDIRECT(ADDRESS(I4+2,22))/(MAX(L4,M4,N4)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>7.8031149483663444</v>
-      </c>
-      <c r="Q4" s="29">
+        <v>7.9278049617992945</v>
+      </c>
+      <c r="Q4" s="28">
         <v>59.234569999999998</v>
       </c>
       <c r="S4" s="18">
@@ -1440,37 +1491,37 @@
       <c r="G5" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H5" s="46" t="str">
-        <f>$T$3</f>
+      <c r="H5" s="34" t="str">
+        <f t="shared" si="0"/>
         <v>AL 7075 T6</v>
       </c>
       <c r="I5" s="11">
         <v>1</v>
       </c>
-      <c r="J5" s="56">
-        <v>141.66329999999999</v>
-      </c>
-      <c r="K5" s="56">
-        <v>385.99919999999997</v>
-      </c>
-      <c r="L5" s="24">
-        <v>16100000</v>
-      </c>
-      <c r="M5" s="24">
-        <v>12700000</v>
-      </c>
-      <c r="N5" s="24">
-        <v>75300000</v>
-      </c>
-      <c r="O5" s="57" cm="1">
+      <c r="J5" s="43">
+        <v>148.99959999999999</v>
+      </c>
+      <c r="K5" s="43">
+        <v>402.12799999999999</v>
+      </c>
+      <c r="L5" s="23">
+        <v>16900000</v>
+      </c>
+      <c r="M5" s="23">
+        <v>13500000</v>
+      </c>
+      <c r="N5" s="23">
+        <v>73300000</v>
+      </c>
+      <c r="O5" s="44" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">INDIRECT(ADDRESS(I5+2,21))/(MAX(L5,M5,N5)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>3.1822857996181222</v>
-      </c>
-      <c r="P5" s="57" cm="1">
+        <v>3.2964000097032002</v>
+      </c>
+      <c r="P5" s="44" cm="1">
         <f t="array" aca="1" ref="P5" ca="1">INDIRECT(ADDRESS(I5+2,22))/(MAX(L5,M5,N5)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>3.1852790856774913</v>
-      </c>
-      <c r="Q5" s="29">
+        <v>3.2994749679606432</v>
+      </c>
+      <c r="Q5" s="28">
         <v>59.138280000000002</v>
       </c>
       <c r="X5" cm="1">
@@ -1495,114 +1546,114 @@
       </c>
     </row>
     <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="65">
         <v>4</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G6" s="38">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H6" s="46" t="str">
-        <f>$T$3</f>
+      <c r="H6" s="34" t="str">
+        <f t="shared" si="0"/>
         <v>AL 7075 T6</v>
       </c>
       <c r="I6" s="11">
         <v>1</v>
       </c>
-      <c r="J6" s="58">
-        <v>159.2441</v>
-      </c>
-      <c r="K6" s="56">
-        <v>395.91849999999999</v>
-      </c>
-      <c r="L6" s="24">
-        <v>14400000</v>
-      </c>
-      <c r="M6" s="24">
-        <v>11300000</v>
-      </c>
-      <c r="N6" s="24">
-        <v>77400000</v>
-      </c>
-      <c r="O6" s="57" cm="1">
+      <c r="J6" s="45">
+        <v>168.6831</v>
+      </c>
+      <c r="K6" s="43">
+        <v>414.4325</v>
+      </c>
+      <c r="L6" s="23">
+        <v>15200000</v>
+      </c>
+      <c r="M6" s="23">
+        <v>12000000</v>
+      </c>
+      <c r="N6" s="23">
+        <v>75700000</v>
+      </c>
+      <c r="O6" s="44" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">INDIRECT(ADDRESS(I6+2,21))/(MAX(L6,M6,N6)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>3.0688129290858477</v>
-      </c>
-      <c r="P6" s="57" cm="1">
+        <v>3.1601865351551464</v>
+      </c>
+      <c r="P6" s="44" cm="1">
         <f t="array" aca="1" ref="P6" ca="1">INDIRECT(ADDRESS(I6+2,22))/(MAX(L6,M6,N6)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>3.0717250019575593</v>
-      </c>
-      <c r="Q6" s="29">
+        <v>3.1631640046435283</v>
+      </c>
+      <c r="Q6" s="28">
         <v>60.67895</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="65">
         <v>5</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="50">
+      <c r="G7" s="38">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H7" s="46" t="str">
-        <f>$T$3</f>
+      <c r="H7" s="34" t="str">
+        <f t="shared" si="0"/>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I7" s="51">
+      <c r="I7" s="39">
         <v>1</v>
       </c>
-      <c r="J7" s="58">
+      <c r="J7" s="45">
         <v>163.0102</v>
       </c>
-      <c r="K7" s="56">
+      <c r="K7" s="43">
         <v>467.82260000000002</v>
       </c>
-      <c r="L7" s="24">
-        <v>20000000</v>
-      </c>
-      <c r="M7" s="24">
-        <v>17000000</v>
-      </c>
-      <c r="N7" s="24">
-        <v>68700000</v>
-      </c>
-      <c r="O7" s="57" cm="1">
+      <c r="L7" s="23">
+        <v>20800000</v>
+      </c>
+      <c r="M7" s="23">
+        <v>17800000</v>
+      </c>
+      <c r="N7" s="23">
+        <v>66500000</v>
+      </c>
+      <c r="O7" s="44" cm="1">
         <f t="array" aca="1" ref="O7" ca="1">INDIRECT(ADDRESS(I7+2,21))/(MAX(L7,M7,N7)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>3.5840774484897322</v>
-      </c>
-      <c r="P7" s="57" cm="1">
+        <v>3.7357311385149563</v>
+      </c>
+      <c r="P7" s="44" cm="1">
         <f t="array" aca="1" ref="P7" ca="1">INDIRECT(ADDRESS(I7+2,22))/(MAX(L7,M7,N7)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>3.5873582991486916</v>
-      </c>
-      <c r="Q7" s="29">
+        <v>3.7391205285942126</v>
+      </c>
+      <c r="Q7" s="28">
         <v>57.854390000000002</v>
       </c>
     </row>
@@ -1610,10 +1661,10 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="32" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1628,25 +1679,39 @@
       <c r="G8" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H8" s="46" t="str">
-        <f>$T$3</f>
+      <c r="H8" s="34" t="str">
+        <f t="shared" si="0"/>
         <v>AL 7075 T6</v>
       </c>
       <c r="I8" s="5">
         <v>1</v>
       </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="57" t="e" cm="1">
+      <c r="J8" s="43">
+        <v>128.3331</v>
+      </c>
+      <c r="K8" s="43">
+        <v>380.64150000000001</v>
+      </c>
+      <c r="L8" s="23">
+        <v>22800000</v>
+      </c>
+      <c r="M8" s="23">
+        <v>19600000</v>
+      </c>
+      <c r="N8" s="23">
+        <v>99700000</v>
+      </c>
+      <c r="O8" s="44" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">INDIRECT(ADDRESS(I8+2,21))/(MAX(L8,M8,N8)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P8" s="57" t="e" cm="1">
+        <v>2.1587374193705573</v>
+      </c>
+      <c r="P8" s="44" cm="1">
         <f t="array" aca="1" ref="P8" ca="1">INDIRECT(ADDRESS(I8+2,22))/(MAX(L8,M8,N8)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q8" s="29"/>
+        <v>2.1609981459530099</v>
+      </c>
+      <c r="Q8" s="28">
+        <v>57.30874</v>
+      </c>
     </row>
     <row r="9" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -1670,25 +1735,39 @@
       <c r="G9" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H9" s="46" t="str">
-        <f>$T$3</f>
+      <c r="H9" s="34" t="str">
+        <f t="shared" si="0"/>
         <v>AL 7075 T6</v>
       </c>
       <c r="I9" s="11">
         <v>1</v>
       </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="57" t="e" cm="1">
+      <c r="J9" s="58">
+        <v>261.2817</v>
+      </c>
+      <c r="K9" s="43">
+        <v>674.06200000000001</v>
+      </c>
+      <c r="L9" s="23">
+        <v>18500000</v>
+      </c>
+      <c r="M9" s="23">
+        <v>15400000</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" s="44" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">INDIRECT(ADDRESS(I9+2,21))/(MAX(L9,M9,N9)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P9" s="57" t="e" cm="1">
+        <v>16.023033551959166</v>
+      </c>
+      <c r="P9" s="44" cm="1">
         <f t="array" aca="1" ref="P9" ca="1">INDIRECT(ADDRESS(I9+2,22))/(MAX(L9,M9,N9)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q9" s="29"/>
+        <v>16.03521703521703</v>
+      </c>
+      <c r="Q9" s="28">
+        <v>58.977800000000002</v>
+      </c>
     </row>
     <row r="10" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
@@ -1712,70 +1791,104 @@
       <c r="G10" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H10" s="46" t="str">
-        <f>$T$3</f>
+      <c r="H10" s="34" t="str">
+        <f t="shared" si="0"/>
         <v>AL 7075 T6</v>
       </c>
       <c r="I10" s="11">
         <v>1</v>
       </c>
-      <c r="O10" s="57" t="e" cm="1">
+      <c r="J10" s="43">
+        <v>146.72550000000001</v>
+      </c>
+      <c r="K10" s="43">
+        <v>412.71379999999999</v>
+      </c>
+      <c r="L10" s="43">
+        <v>18700000</v>
+      </c>
+      <c r="M10" s="43">
+        <v>15500000</v>
+      </c>
+      <c r="N10" s="43">
+        <v>76300000</v>
+      </c>
+      <c r="O10" s="44" cm="1">
         <f t="array" aca="1" ref="O10" ca="1">INDIRECT(ADDRESS(I10+2,21))/(MAX(L10,M10,N10)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P10" s="57" t="e" cm="1">
+        <v>3.1274720932011091</v>
+      </c>
+      <c r="P10" s="44" cm="1">
         <f t="array" aca="1" ref="P10" ca="1">INDIRECT(ADDRESS(I10+2,22))/(MAX(L10,M10,N10)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q10" s="31"/>
+        <v>3.130426148774772</v>
+      </c>
+      <c r="Q10" s="57">
+        <v>58.303750000000001</v>
+      </c>
     </row>
     <row r="11" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="38" t="s">
         <v>46</v>
       </c>
       <c r="G11" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H11" s="46" t="str">
-        <f>$T$3</f>
+      <c r="H11" s="34" t="str">
+        <f t="shared" si="0"/>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I11" s="51">
+      <c r="I11" s="39">
         <v>1</v>
       </c>
-      <c r="O11" s="57" t="e" cm="1">
+      <c r="J11" s="58">
+        <v>195.05600000000001</v>
+      </c>
+      <c r="K11" s="43">
+        <v>444.99610000000001</v>
+      </c>
+      <c r="L11" s="43">
+        <v>14200000</v>
+      </c>
+      <c r="M11" s="43">
+        <v>11200000</v>
+      </c>
+      <c r="N11" s="43">
+        <v>68800000</v>
+      </c>
+      <c r="O11" s="44" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">INDIRECT(ADDRESS(I11+2,21))/(MAX(L11,M11,N11)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P11" s="57" t="e" cm="1">
+        <v>3.5774145452215782</v>
+      </c>
+      <c r="P11" s="44" cm="1">
         <f t="array" aca="1" ref="P11" ca="1">INDIRECT(ADDRESS(I11+2,22))/(MAX(L11,M11,N11)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q11" s="29"/>
+        <v>3.5806906272022543</v>
+      </c>
+      <c r="Q11" s="28">
+        <v>62.12332</v>
+      </c>
     </row>
     <row r="12" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="32" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1787,40 +1900,40 @@
       <c r="F12" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="52">
+      <c r="G12" s="40">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H12" s="46" t="str">
-        <f>$T$3</f>
+      <c r="H12" s="34" t="str">
+        <f t="shared" si="0"/>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I12" s="47">
+      <c r="I12" s="35">
         <v>1</v>
       </c>
-      <c r="J12" s="56">
-        <v>123.172</v>
-      </c>
-      <c r="K12" s="56">
-        <v>344.66109999999998</v>
-      </c>
-      <c r="L12" s="56">
-        <v>17900000</v>
-      </c>
-      <c r="M12" s="56">
-        <v>15400000</v>
-      </c>
-      <c r="N12" s="56">
-        <v>103000000</v>
-      </c>
-      <c r="O12" s="57" cm="1">
+      <c r="J12" s="43">
+        <v>133.3459</v>
+      </c>
+      <c r="K12" s="43">
+        <v>370.01589999999999</v>
+      </c>
+      <c r="L12" s="43">
+        <v>19300000</v>
+      </c>
+      <c r="M12" s="43">
+        <v>16600000</v>
+      </c>
+      <c r="N12" s="43">
+        <v>94100000</v>
+      </c>
+      <c r="O12" s="44" cm="1">
         <f t="array" aca="1" ref="O12" ca="1">INDIRECT(ADDRESS(I12+2,21))/(MAX(L12,M12,N12)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>2.0575351525363561</v>
-      </c>
-      <c r="P12" s="57" cm="1">
+        <v>2.3467175420961164</v>
+      </c>
+      <c r="P12" s="44" cm="1">
         <f t="array" aca="1" ref="P12" ca="1">INDIRECT(ADDRESS(I12+2,22))/(MAX(L12,M12,N12)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>2.0597234480729627</v>
-      </c>
-      <c r="Q12" s="29">
+        <v>2.3491128071361858</v>
+      </c>
+      <c r="Q12" s="28">
         <v>58.705399999999997</v>
       </c>
     </row>
@@ -1828,786 +1941,946 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="54" t="s">
+      <c r="B13" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="50">
-        <v>1E-3</v>
-      </c>
-      <c r="H13" s="46" t="str">
-        <f>$T$3</f>
+      <c r="F13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="40">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H13" s="34" t="str">
+        <f t="shared" si="0"/>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I13" s="51">
+      <c r="I13" s="35">
         <v>1</v>
       </c>
-      <c r="J13" s="56">
-        <v>114.1709</v>
-      </c>
-      <c r="K13" s="56">
-        <v>360.08620000000002</v>
-      </c>
-      <c r="L13" s="56">
-        <v>31100000</v>
-      </c>
-      <c r="M13" s="56">
-        <v>24500000</v>
-      </c>
-      <c r="N13" s="56">
-        <v>140000000</v>
-      </c>
-      <c r="O13" s="57" cm="1">
+      <c r="J13" s="43">
+        <v>128.07329999999999</v>
+      </c>
+      <c r="K13" s="43">
+        <v>312.76029999999997</v>
+      </c>
+      <c r="L13" s="43">
+        <v>21100000</v>
+      </c>
+      <c r="M13" s="43">
+        <v>17900000</v>
+      </c>
+      <c r="N13" s="43">
+        <v>99600000</v>
+      </c>
+      <c r="O13" s="44" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">INDIRECT(ADDRESS(I13+2,21))/(MAX(L13,M13,N13)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>1.2494722907946043</v>
-      </c>
-      <c r="P13" s="57" cm="1">
+        <v>2.1619088424823749</v>
+      </c>
+      <c r="P13" s="44" cm="1">
         <f t="array" aca="1" ref="P13" ca="1">INDIRECT(ADDRESS(I13+2,22))/(MAX(L13,M13,N13)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>1.2510822510822508</v>
-      </c>
-      <c r="Q13" s="29">
-        <v>55.670909999999999</v>
+        <v>2.1641718388706335</v>
+      </c>
+      <c r="Q13" s="28">
+        <v>58.772889999999997</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="45" t="s">
+      <c r="B14" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="52">
+      <c r="G14" s="38">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H14" s="46" t="str">
-        <f>$T$3</f>
+      <c r="H14" s="34" t="str">
+        <f t="shared" si="0"/>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I14" s="47">
+      <c r="I14" s="39">
         <v>1</v>
       </c>
-      <c r="J14" s="56">
-        <v>120.8005</v>
-      </c>
-      <c r="K14" s="56">
-        <v>296.85480000000001</v>
-      </c>
-      <c r="L14" s="56">
-        <v>20000000</v>
-      </c>
-      <c r="M14" s="56">
-        <v>16900000</v>
-      </c>
-      <c r="N14" s="56">
-        <v>104000000</v>
-      </c>
-      <c r="O14" s="57" cm="1">
+      <c r="J14" s="43">
+        <v>128.6386</v>
+      </c>
+      <c r="K14" s="43">
+        <v>313.41210000000001</v>
+      </c>
+      <c r="L14" s="43">
+        <v>20800000</v>
+      </c>
+      <c r="M14" s="43">
+        <v>17800000</v>
+      </c>
+      <c r="N14" s="43">
+        <v>99100000</v>
+      </c>
+      <c r="O14" s="44" cm="1">
         <f t="array" aca="1" ref="O14" ca="1">INDIRECT(ADDRESS(I14+2,21))/(MAX(L14,M14,N14)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>2.0281357760696603</v>
-      </c>
-      <c r="P14" s="57" cm="1">
+        <v>2.1778619647956061</v>
+      </c>
+      <c r="P14" s="44" cm="1">
         <f t="array" aca="1" ref="P14" ca="1">INDIRECT(ADDRESS(I14+2,22))/(MAX(L14,M14,N14)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>2.0303030303030303</v>
-      </c>
-      <c r="Q14" s="29">
+        <v>2.1801363789254804</v>
+      </c>
+      <c r="Q14" s="28">
         <v>58.772889999999997</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="65">
         <v>13</v>
       </c>
-      <c r="B15" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="50">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H15" s="46" t="str">
-        <f>$T$3</f>
+      <c r="B15" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="38">
+        <v>1E-3</v>
+      </c>
+      <c r="H15" s="34" t="str">
+        <f t="shared" si="0"/>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I15" s="51">
+      <c r="I15" s="39">
         <v>1</v>
       </c>
-      <c r="J15" s="56">
-        <v>121.4365</v>
-      </c>
-      <c r="K15" s="56">
-        <v>297.65980000000002</v>
-      </c>
-      <c r="L15" s="56">
-        <v>19700000</v>
-      </c>
-      <c r="M15" s="56">
-        <v>16700000</v>
-      </c>
-      <c r="N15" s="56">
-        <v>104000000</v>
-      </c>
-      <c r="O15" s="57" cm="1">
+      <c r="J15" s="45">
+        <v>156.76669999999999</v>
+      </c>
+      <c r="K15" s="43">
+        <v>458.80860000000001</v>
+      </c>
+      <c r="L15" s="43">
+        <v>32200000</v>
+      </c>
+      <c r="M15" s="43">
+        <v>25400000</v>
+      </c>
+      <c r="N15" s="43">
+        <v>103000000</v>
+      </c>
+      <c r="O15" s="44" cm="1">
         <f t="array" aca="1" ref="O15" ca="1">INDIRECT(ADDRESS(I15+2,21))/(MAX(L15,M15,N15)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>2.0281357760696603</v>
-      </c>
-      <c r="P15" s="57" cm="1">
+        <v>2.0575351525363561</v>
+      </c>
+      <c r="P15" s="44" cm="1">
         <f t="array" aca="1" ref="P15" ca="1">INDIRECT(ADDRESS(I15+2,22))/(MAX(L15,M15,N15)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>2.0303030303030303</v>
-      </c>
-      <c r="Q15" s="29">
-        <v>58.772889999999997</v>
+        <v>2.0597234480729627</v>
+      </c>
+      <c r="Q15" s="60">
+        <v>55.831389999999999</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="59">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="50">
-        <v>1E-3</v>
-      </c>
-      <c r="H16" s="46" t="str">
-        <f>$T$3</f>
-        <v>AL 7075 T6</v>
-      </c>
-      <c r="I16" s="51">
-        <v>1</v>
-      </c>
-      <c r="J16" s="58">
-        <v>154.55680000000001</v>
-      </c>
-      <c r="K16" s="56">
-        <v>455.72899999999998</v>
-      </c>
-      <c r="L16" s="56">
-        <v>31800000</v>
-      </c>
-      <c r="M16" s="56">
-        <v>25000000</v>
-      </c>
-      <c r="N16" s="56">
-        <v>103000000</v>
-      </c>
-      <c r="O16" s="57" cm="1">
-        <f t="array" aca="1" ref="O16" ca="1">INDIRECT(ADDRESS(I16+2,21))/(MAX(L16,M16,N16)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>2.0575351525363561</v>
-      </c>
-      <c r="P16" s="57" cm="1">
-        <f t="array" aca="1" ref="P16" ca="1">INDIRECT(ADDRESS(I16+2,22))/(MAX(L16,M16,N16)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>2.0597234480729627</v>
-      </c>
-      <c r="Q16" s="29">
-        <v>55.831389999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q17" s="31"/>
-    </row>
-    <row r="18" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q18" s="29"/>
-    </row>
-    <row r="19" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q19" s="29"/>
-    </row>
-    <row r="20" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q20" s="29"/>
-    </row>
-    <row r="21" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q21" s="29"/>
-    </row>
-    <row r="22" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q22" s="29"/>
-    </row>
-    <row r="23" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q23" s="29"/>
-    </row>
-    <row r="24" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q24" s="31"/>
-    </row>
-    <row r="25" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q25" s="29"/>
-    </row>
-    <row r="26" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q26" s="29"/>
-    </row>
-    <row r="27" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q27" s="29"/>
-    </row>
-    <row r="28" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q28" s="29"/>
-    </row>
-    <row r="29" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q29" s="29"/>
-    </row>
-    <row r="30" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q30" s="29"/>
-    </row>
-    <row r="31" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q31" s="31"/>
-    </row>
-    <row r="32" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q32" s="29"/>
+      <c r="F16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="10">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="H16" s="31" t="str">
+        <f>$T$4</f>
+        <v>CFRP</v>
+      </c>
+      <c r="I16" s="11">
+        <f>$S$4</f>
+        <v>2</v>
+      </c>
+      <c r="J16" s="45">
+        <v>160.1542</v>
+      </c>
+      <c r="K16" s="43">
+        <v>377.73570000000001</v>
+      </c>
+      <c r="L16" s="43">
+        <v>27000000</v>
+      </c>
+      <c r="M16" s="43">
+        <v>10600000</v>
+      </c>
+      <c r="N16" s="43">
+        <v>91000000</v>
+      </c>
+      <c r="O16" s="59" cm="1">
+        <f t="array" aca="1" ref="O16" ca="1">INDIRECT(ADDRESS(I16+2,21))/(MAX(L16,M16,N16)*INDIRECT(ADDRESS(5,24))*INDIRECT(ADDRESS(5,25))*INDIRECT(ADDRESS(5,26))*INDIRECT(ADDRESS(5,27))) -1</f>
+        <v>3.2025825414254916E-2</v>
+      </c>
+      <c r="P16" s="64" cm="1">
+        <f t="array" aca="1" ref="P16" ca="1">INDIRECT(ADDRESS(I16+2,22))/(MAX(L16,M16,N16)*INDIRECT(ADDRESS(5,24))*INDIRECT(ADDRESS(5,25))*INDIRECT(ADDRESS(5,26))*INDIRECT(ADDRESS(5,28))) -1</f>
+        <v>-3.1271758544485939E-2</v>
+      </c>
+      <c r="Q16" s="57">
+        <v>54.902009999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>15</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="H17" s="31" t="str">
+        <f>$T$4</f>
+        <v>CFRP</v>
+      </c>
+      <c r="I17" s="11">
+        <f>$S$4</f>
+        <v>2</v>
+      </c>
+      <c r="J17" s="45">
+        <v>152.536</v>
+      </c>
+      <c r="K17" s="43">
+        <v>365.79989999999998</v>
+      </c>
+      <c r="L17" s="43">
+        <v>35200000</v>
+      </c>
+      <c r="M17" s="43">
+        <v>14800000</v>
+      </c>
+      <c r="N17" s="43">
+        <v>118000000</v>
+      </c>
+      <c r="O17" s="59" cm="1">
+        <f t="array" aca="1" ref="O17" ca="1">INDIRECT(ADDRESS(I17+2,21))/(MAX(L17,M17,N17)*INDIRECT(ADDRESS(5,24))*INDIRECT(ADDRESS(5,25))*INDIRECT(ADDRESS(5,26))*INDIRECT(ADDRESS(5,27))) -1</f>
+        <v>-0.20411567701104061</v>
+      </c>
+      <c r="P17" s="64" cm="1">
+        <f t="array" aca="1" ref="P17" ca="1">INDIRECT(ADDRESS(I17+2,22))/(MAX(L17,M17,N17)*INDIRECT(ADDRESS(5,24))*INDIRECT(ADDRESS(5,25))*INDIRECT(ADDRESS(5,26))*INDIRECT(ADDRESS(5,28))) -1</f>
+        <v>-0.25292991548769672</v>
+      </c>
+      <c r="Q17" s="28">
+        <v>54.110509999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="61">
+        <v>16</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="10">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="H18" s="31" t="str">
+        <f>$T$4</f>
+        <v>CFRP</v>
+      </c>
+      <c r="I18" s="11">
+        <f>$S$4</f>
+        <v>2</v>
+      </c>
+      <c r="J18" s="45">
+        <v>171.7998</v>
+      </c>
+      <c r="K18" s="43">
+        <v>421.38380000000001</v>
+      </c>
+      <c r="L18" s="43">
+        <v>23300000</v>
+      </c>
+      <c r="M18" s="43">
+        <v>8650000</v>
+      </c>
+      <c r="N18" s="43">
+        <v>86900000</v>
+      </c>
+      <c r="O18" s="59" cm="1">
+        <f t="array" aca="1" ref="O18" ca="1">INDIRECT(ADDRESS(I18+2,21))/(MAX(L18,M18,N18)*INDIRECT(ADDRESS(5,24))*INDIRECT(ADDRESS(5,25))*INDIRECT(ADDRESS(5,26))*INDIRECT(ADDRESS(5,27))) -1</f>
+        <v>8.0717492666250834E-2</v>
+      </c>
+      <c r="P18" s="59" cm="1">
+        <f t="array" aca="1" ref="P18" ca="1">INDIRECT(ADDRESS(I18+2,22))/(MAX(L18,M18,N18)*INDIRECT(ADDRESS(5,24))*INDIRECT(ADDRESS(5,25))*INDIRECT(ADDRESS(5,26))*INDIRECT(ADDRESS(5,28))) -1</f>
+        <v>1.4433486449387578E-2</v>
+      </c>
+      <c r="Q18" s="60">
+        <v>55.706099999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>17</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="10">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="H19" s="31" t="str">
+        <f>$T$4</f>
+        <v>CFRP</v>
+      </c>
+      <c r="I19" s="11">
+        <f>$S$4</f>
+        <v>2</v>
+      </c>
+      <c r="J19" s="43">
+        <v>136.49029999999999</v>
+      </c>
+      <c r="K19" s="43">
+        <v>345.52670000000001</v>
+      </c>
+      <c r="L19" s="43">
+        <v>25100000</v>
+      </c>
+      <c r="M19" s="43">
+        <v>8200000</v>
+      </c>
+      <c r="N19" s="43">
+        <v>115000000</v>
+      </c>
+      <c r="O19" s="62" cm="1">
+        <f t="array" aca="1" ref="O19" ca="1">INDIRECT(ADDRESS(I19+2,21))/(MAX(L19,M19,N19)*INDIRECT(ADDRESS(5,24))*INDIRECT(ADDRESS(5,25))*INDIRECT(ADDRESS(5,26))*INDIRECT(ADDRESS(5,27))) -1</f>
+        <v>-0.18335347728089368</v>
+      </c>
+      <c r="P19" s="63" cm="1">
+        <f t="array" aca="1" ref="P19" ca="1">INDIRECT(ADDRESS(I19+2,22))/(MAX(L19,M19,N19)*INDIRECT(ADDRESS(5,24))*INDIRECT(ADDRESS(5,25))*INDIRECT(ADDRESS(5,26))*INDIRECT(ADDRESS(5,28))) -1</f>
+        <v>-0.23344113067433225</v>
+      </c>
+      <c r="Q19" s="28">
+        <v>55.367440000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q20" s="28"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q21" s="28"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q22" s="28"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q23" s="30"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q24" s="28"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q25" s="28"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q26" s="28"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q27" s="28"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q28" s="28"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q29" s="28"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q30" s="30"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q31" s="28"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q32" s="28"/>
     </row>
     <row r="33" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q33" s="29"/>
+      <c r="Q33" s="28"/>
     </row>
     <row r="34" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q34" s="29"/>
+      <c r="Q34" s="28"/>
     </row>
     <row r="35" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q35" s="29"/>
+      <c r="Q35" s="28"/>
     </row>
     <row r="36" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q36" s="29"/>
+      <c r="Q36" s="28"/>
     </row>
     <row r="37" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q37" s="29"/>
+      <c r="Q37" s="30"/>
     </row>
     <row r="38" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q38" s="31"/>
+      <c r="Q38" s="28"/>
     </row>
     <row r="39" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q39" s="29"/>
+      <c r="Q39" s="28"/>
     </row>
     <row r="40" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q40" s="29"/>
+      <c r="Q40" s="28"/>
     </row>
     <row r="41" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q41" s="29"/>
+      <c r="Q41" s="28"/>
     </row>
     <row r="42" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q42" s="29"/>
+      <c r="Q42" s="28"/>
     </row>
     <row r="43" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q43" s="29"/>
+      <c r="Q43" s="28"/>
     </row>
     <row r="44" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q44" s="29"/>
+      <c r="Q44" s="30"/>
     </row>
     <row r="45" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q45" s="31"/>
+      <c r="Q45" s="28"/>
     </row>
     <row r="46" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q46" s="29"/>
+      <c r="Q46" s="28"/>
     </row>
     <row r="47" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q47" s="29"/>
+      <c r="Q47" s="28"/>
     </row>
     <row r="48" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q48" s="29"/>
+      <c r="Q48" s="28"/>
     </row>
     <row r="49" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q49" s="29"/>
+      <c r="Q49" s="28"/>
     </row>
     <row r="50" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q50" s="29"/>
+      <c r="Q50" s="28"/>
     </row>
     <row r="51" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q51" s="29"/>
+      <c r="Q51" s="30"/>
     </row>
     <row r="52" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q52" s="31"/>
+      <c r="Q52" s="28"/>
     </row>
     <row r="53" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q53" s="29"/>
+      <c r="Q53" s="28"/>
     </row>
     <row r="54" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q54" s="29"/>
+      <c r="Q54" s="28"/>
     </row>
     <row r="55" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q55" s="29"/>
+      <c r="Q55" s="28"/>
     </row>
     <row r="56" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q56" s="29"/>
+      <c r="Q56" s="28"/>
     </row>
     <row r="57" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q57" s="29"/>
+      <c r="Q57" s="28"/>
     </row>
     <row r="58" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q58" s="29"/>
+      <c r="Q58" s="30"/>
     </row>
     <row r="59" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q59" s="31"/>
+      <c r="Q59" s="28"/>
     </row>
     <row r="60" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q60" s="29"/>
+      <c r="Q60" s="28"/>
     </row>
     <row r="61" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q61" s="29"/>
+      <c r="Q61" s="28"/>
     </row>
     <row r="62" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q62" s="29"/>
+      <c r="Q62" s="28"/>
     </row>
     <row r="63" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q63" s="29"/>
+      <c r="Q63" s="28"/>
     </row>
     <row r="64" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q64" s="29"/>
+      <c r="Q64" s="28"/>
     </row>
     <row r="65" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q65" s="29"/>
+      <c r="Q65" s="30"/>
     </row>
     <row r="66" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q66" s="31"/>
+      <c r="Q66" s="28"/>
     </row>
     <row r="67" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q67" s="29"/>
+      <c r="Q67" s="28"/>
     </row>
     <row r="68" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q68" s="29"/>
+      <c r="Q68" s="28"/>
     </row>
     <row r="69" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q69" s="29"/>
+      <c r="Q69" s="28"/>
     </row>
     <row r="70" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q70" s="29"/>
+      <c r="Q70" s="28"/>
     </row>
     <row r="71" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q71" s="29"/>
+      <c r="Q71" s="28"/>
     </row>
     <row r="72" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q72" s="29"/>
+      <c r="Q72" s="30"/>
     </row>
     <row r="73" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q73" s="31"/>
+      <c r="Q73" s="28"/>
     </row>
     <row r="74" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q74" s="29"/>
+      <c r="Q74" s="28"/>
     </row>
     <row r="75" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q75" s="29"/>
+      <c r="Q75" s="28"/>
     </row>
     <row r="76" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q76" s="29"/>
+      <c r="Q76" s="28"/>
     </row>
     <row r="77" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q77" s="29"/>
+      <c r="Q77" s="28"/>
     </row>
     <row r="78" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q78" s="29"/>
+      <c r="Q78" s="28"/>
     </row>
     <row r="79" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q79" s="29"/>
+      <c r="Q79" s="30"/>
     </row>
     <row r="80" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q80" s="31"/>
+      <c r="Q80" s="28"/>
     </row>
     <row r="81" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q81" s="29"/>
+      <c r="Q81" s="28"/>
     </row>
     <row r="82" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q82" s="29"/>
+      <c r="Q82" s="28"/>
     </row>
     <row r="83" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q83" s="29"/>
+      <c r="Q83" s="28"/>
     </row>
     <row r="84" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q84" s="29"/>
+      <c r="Q84" s="28"/>
     </row>
     <row r="85" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q85" s="29"/>
+      <c r="Q85" s="28"/>
     </row>
     <row r="86" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q86" s="29"/>
+      <c r="Q86" s="30"/>
     </row>
     <row r="87" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q87" s="31"/>
+      <c r="Q87" s="28"/>
     </row>
     <row r="88" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q88" s="29"/>
+      <c r="Q88" s="28"/>
     </row>
     <row r="89" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q89" s="29"/>
+      <c r="Q89" s="28"/>
     </row>
     <row r="90" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q90" s="29"/>
+      <c r="Q90" s="28"/>
     </row>
     <row r="91" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q91" s="29"/>
+      <c r="Q91" s="28"/>
     </row>
     <row r="92" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q92" s="29"/>
+      <c r="Q92" s="28"/>
     </row>
     <row r="93" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q93" s="29"/>
+      <c r="Q93" s="30"/>
     </row>
     <row r="94" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q94" s="31"/>
+      <c r="Q94" s="28"/>
     </row>
     <row r="95" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q95" s="29"/>
+      <c r="Q95" s="28"/>
     </row>
     <row r="96" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q96" s="29"/>
+      <c r="Q96" s="28"/>
     </row>
     <row r="97" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q97" s="29"/>
+      <c r="Q97" s="28"/>
     </row>
     <row r="98" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q98" s="29"/>
+      <c r="Q98" s="28"/>
     </row>
     <row r="99" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q99" s="29"/>
+      <c r="Q99" s="28"/>
     </row>
     <row r="100" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q100" s="29"/>
+      <c r="Q100" s="30"/>
     </row>
     <row r="101" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q101" s="31"/>
+      <c r="Q101" s="28"/>
     </row>
     <row r="102" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q102" s="29"/>
+      <c r="Q102" s="28"/>
     </row>
     <row r="103" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q103" s="29"/>
+      <c r="Q103" s="28"/>
     </row>
     <row r="104" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q104" s="29"/>
+      <c r="Q104" s="28"/>
     </row>
     <row r="105" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q105" s="29"/>
+      <c r="Q105" s="28"/>
     </row>
     <row r="106" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q106" s="29"/>
+      <c r="Q106" s="28"/>
     </row>
     <row r="107" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q107" s="29"/>
+      <c r="Q107" s="30"/>
     </row>
     <row r="108" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q108" s="31"/>
+      <c r="Q108" s="28"/>
     </row>
     <row r="109" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q109" s="29"/>
+      <c r="Q109" s="28"/>
     </row>
     <row r="110" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q110" s="29"/>
+      <c r="Q110" s="28"/>
     </row>
     <row r="111" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q111" s="29"/>
+      <c r="Q111" s="28"/>
     </row>
     <row r="112" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q112" s="29"/>
+      <c r="Q112" s="28"/>
     </row>
     <row r="113" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q113" s="29"/>
+      <c r="Q113" s="28"/>
     </row>
     <row r="114" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q114" s="29"/>
+      <c r="Q114" s="30"/>
     </row>
     <row r="115" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q115" s="31"/>
+      <c r="Q115" s="28"/>
     </row>
     <row r="116" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q116" s="29"/>
+      <c r="Q116" s="28"/>
     </row>
     <row r="117" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q117" s="29"/>
+      <c r="Q117" s="28"/>
     </row>
     <row r="118" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q118" s="29"/>
+      <c r="Q118" s="28"/>
     </row>
     <row r="119" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q119" s="29"/>
+      <c r="Q119" s="28"/>
     </row>
     <row r="120" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q120" s="29"/>
+      <c r="Q120" s="28"/>
     </row>
     <row r="121" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q121" s="29"/>
+      <c r="Q121" s="30"/>
     </row>
     <row r="122" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q122" s="31"/>
+      <c r="Q122" s="28"/>
     </row>
     <row r="123" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q123" s="29"/>
+      <c r="Q123" s="28"/>
     </row>
     <row r="124" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q124" s="29"/>
+      <c r="Q124" s="28"/>
     </row>
     <row r="125" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q125" s="29"/>
+      <c r="Q125" s="28"/>
     </row>
     <row r="126" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q126" s="29"/>
+      <c r="Q126" s="28"/>
     </row>
     <row r="127" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q127" s="29"/>
+      <c r="Q127" s="28"/>
     </row>
     <row r="128" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q128" s="29"/>
+      <c r="Q128" s="30"/>
     </row>
     <row r="129" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q129" s="31"/>
+      <c r="Q129" s="28"/>
     </row>
     <row r="130" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q130" s="29"/>
+      <c r="Q130" s="28"/>
     </row>
     <row r="131" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q131" s="29"/>
+      <c r="Q131" s="28"/>
     </row>
     <row r="132" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q132" s="29"/>
+      <c r="Q132" s="28"/>
     </row>
     <row r="133" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q133" s="29"/>
+      <c r="Q133" s="28"/>
     </row>
     <row r="134" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q134" s="29"/>
+      <c r="Q134" s="28"/>
     </row>
     <row r="135" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q135" s="29"/>
+      <c r="Q135" s="30"/>
     </row>
     <row r="136" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q136" s="31"/>
+      <c r="Q136" s="28"/>
     </row>
     <row r="137" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q137" s="29"/>
+      <c r="Q137" s="28"/>
     </row>
     <row r="138" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q138" s="29"/>
+      <c r="Q138" s="28"/>
     </row>
     <row r="139" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q139" s="29"/>
+      <c r="Q139" s="28"/>
     </row>
     <row r="140" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q140" s="29"/>
+      <c r="Q140" s="28"/>
     </row>
     <row r="141" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q141" s="29"/>
+      <c r="Q141" s="28"/>
     </row>
     <row r="142" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q142" s="29"/>
+      <c r="Q142" s="30"/>
     </row>
     <row r="143" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q143" s="31"/>
+      <c r="Q143" s="28"/>
     </row>
     <row r="144" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q144" s="29"/>
+      <c r="Q144" s="28"/>
     </row>
     <row r="145" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q145" s="29"/>
+      <c r="Q145" s="28"/>
     </row>
     <row r="146" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q146" s="29"/>
+      <c r="Q146" s="28"/>
     </row>
     <row r="147" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q147" s="29"/>
+      <c r="Q147" s="28"/>
     </row>
     <row r="148" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q148" s="29"/>
+      <c r="Q148" s="28"/>
     </row>
     <row r="149" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q149" s="29"/>
+      <c r="Q149" s="30"/>
     </row>
     <row r="150" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q150" s="31"/>
+      <c r="Q150" s="28"/>
     </row>
     <row r="151" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q151" s="29"/>
+      <c r="Q151" s="28"/>
     </row>
     <row r="152" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q152" s="29"/>
+      <c r="Q152" s="28"/>
     </row>
     <row r="153" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q153" s="29"/>
+      <c r="Q153" s="28"/>
     </row>
     <row r="154" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q154" s="29"/>
+      <c r="Q154" s="28"/>
     </row>
     <row r="155" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q155" s="29"/>
+      <c r="Q155" s="28"/>
     </row>
     <row r="156" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q156" s="29"/>
+      <c r="Q156" s="30"/>
     </row>
     <row r="157" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q157" s="31"/>
+      <c r="Q157" s="28"/>
     </row>
     <row r="158" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q158" s="29"/>
+      <c r="Q158" s="28"/>
     </row>
     <row r="159" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q159" s="29"/>
+      <c r="Q159" s="28"/>
     </row>
     <row r="160" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q160" s="29"/>
+      <c r="Q160" s="28"/>
     </row>
     <row r="161" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q161" s="29"/>
+      <c r="Q161" s="28"/>
     </row>
     <row r="162" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q162" s="29"/>
+      <c r="Q162" s="28"/>
     </row>
     <row r="163" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q163" s="29"/>
+      <c r="Q163" s="30"/>
     </row>
     <row r="164" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q164" s="31"/>
+      <c r="Q164" s="28"/>
     </row>
     <row r="165" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q165" s="29"/>
+      <c r="Q165" s="28"/>
     </row>
     <row r="166" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q166" s="29"/>
+      <c r="Q166" s="28"/>
     </row>
     <row r="167" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q167" s="29"/>
+      <c r="Q167" s="28"/>
     </row>
     <row r="168" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q168" s="29"/>
+      <c r="Q168" s="28"/>
     </row>
     <row r="169" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q169" s="29"/>
+      <c r="Q169" s="28"/>
     </row>
     <row r="170" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q170" s="29"/>
+      <c r="Q170" s="30"/>
     </row>
     <row r="171" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q171" s="31"/>
+      <c r="Q171" s="28"/>
     </row>
     <row r="172" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q172" s="29"/>
+      <c r="Q172" s="28"/>
     </row>
     <row r="173" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q173" s="29"/>
+      <c r="Q173" s="28"/>
     </row>
     <row r="174" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q174" s="29"/>
+      <c r="Q174" s="28"/>
     </row>
     <row r="175" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q175" s="29"/>
+      <c r="Q175" s="28"/>
     </row>
     <row r="176" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q176" s="29"/>
+      <c r="Q176" s="28"/>
     </row>
     <row r="177" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q177" s="29"/>
+      <c r="Q177" s="30"/>
     </row>
     <row r="178" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q178" s="31"/>
+      <c r="Q178" s="28"/>
     </row>
     <row r="179" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q179" s="29"/>
+      <c r="Q179" s="28"/>
     </row>
     <row r="180" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q180" s="29"/>
+      <c r="Q180" s="28"/>
     </row>
     <row r="181" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q181" s="29"/>
+      <c r="Q181" s="28"/>
     </row>
     <row r="182" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q182" s="29"/>
+      <c r="Q182" s="28"/>
     </row>
     <row r="183" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q183" s="29"/>
+      <c r="Q183" s="28"/>
     </row>
     <row r="184" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q184" s="29"/>
+      <c r="Q184" s="30"/>
     </row>
     <row r="185" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q185" s="31"/>
+      <c r="Q185" s="28"/>
     </row>
     <row r="186" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q186" s="29"/>
+      <c r="Q186" s="28"/>
     </row>
     <row r="187" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q187" s="29"/>
+      <c r="Q187" s="28"/>
     </row>
     <row r="188" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q188" s="29"/>
+      <c r="Q188" s="28"/>
     </row>
     <row r="189" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q189" s="29"/>
+      <c r="Q189" s="28"/>
     </row>
     <row r="190" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q190" s="29"/>
+      <c r="Q190" s="28"/>
     </row>
     <row r="191" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q191" s="29"/>
+      <c r="Q191" s="30"/>
     </row>
     <row r="192" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q192" s="31"/>
+      <c r="Q192" s="28"/>
     </row>
     <row r="193" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q193" s="29"/>
+      <c r="Q193" s="28"/>
     </row>
     <row r="194" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q194" s="29"/>
+      <c r="Q194" s="28"/>
     </row>
     <row r="195" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q195" s="29"/>
+      <c r="Q195" s="28"/>
     </row>
     <row r="196" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q196" s="29"/>
+      <c r="Q196" s="28"/>
     </row>
     <row r="197" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q197" s="29"/>
+      <c r="Q197" s="28"/>
     </row>
     <row r="198" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q198" s="29"/>
+      <c r="Q198" s="30"/>
     </row>
     <row r="199" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q199" s="31"/>
+      <c r="Q199" s="28"/>
     </row>
     <row r="200" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q200" s="29"/>
+      <c r="Q200" s="28"/>
     </row>
     <row r="201" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q201" s="29"/>
+      <c r="Q201" s="28"/>
     </row>
     <row r="202" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q202" s="29"/>
-    </row>
-    <row r="203" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q203" s="29"/>
+      <c r="Q202" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Bandeja_A/Bandeja_A.xlsx
+++ b/Bandeja_A/Bandeja_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MUSE\EUE\Practica2_EUE\Bandeja_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D445C2D7-B8D2-4467-8DF0-C958ED29E00A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B174DA-DB41-4D49-931E-E191B2136887}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -822,6 +822,30 @@
     <xf numFmtId="11" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="1" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -855,34 +879,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -893,9 +891,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFC7A1D3"/>
       <color rgb="FFB17CC2"/>
       <color rgb="FFFF2929"/>
-      <color rgb="FFC7A1D3"/>
       <color rgb="FF83E4E9"/>
       <color rgb="FF33CCFF"/>
       <color rgb="FF7AE684"/>
@@ -1181,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB202"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="B10" colorId="23" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="L10" colorId="23" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,45 +1201,45 @@
     <col min="16" max="16" width="11.28515625" style="30" customWidth="1"/>
     <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="2.28515625" customWidth="1"/>
-    <col min="19" max="19" width="6.5703125" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" customWidth="1"/>
     <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="52" t="s">
+      <c r="C1" s="57"/>
+      <c r="D1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="55" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="53" t="s">
+      <c r="G1" s="64"/>
+      <c r="H1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="46" t="s">
+      <c r="I1" s="62"/>
+      <c r="J1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
+      <c r="A2" s="59"/>
       <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
@@ -1319,7 +1317,7 @@
       </c>
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66">
+      <c r="A3" s="53">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1362,13 +1360,13 @@
       <c r="N3" s="23">
         <v>98300000</v>
       </c>
-      <c r="O3" s="59" cm="1">
-        <f t="array" aca="1" ref="O3" ca="1">INDIRECT(ADDRESS(I3+2,21))/(MAX(L3,M3,N3)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+      <c r="O3" s="48">
+        <f>($U$3/((MAX(L3:N3))*$X$3*$Y$3*$Z$3*$AA$3)-1)</f>
         <v>0.51406788803483017</v>
       </c>
-      <c r="P3" s="59" cm="1">
-        <f t="array" aca="1" ref="P3" ca="1">INDIRECT(ADDRESS(I3+2,22))/(MAX(L3,M3,N3)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>0.51515151515151514</v>
+      <c r="P3" s="48">
+        <f>($V$3/((MAX(L3:N3))*$X$3*$Y$3*$Z$3*$AB$3))</f>
+        <v>1.5151515151515151</v>
       </c>
       <c r="Q3" s="28">
         <v>57.69</v>
@@ -1430,7 +1428,7 @@
       <c r="I4" s="11">
         <v>1</v>
       </c>
-      <c r="J4" s="58">
+      <c r="J4" s="47">
         <v>253.5805</v>
       </c>
       <c r="K4" s="43">
@@ -1445,13 +1443,13 @@
       <c r="N4" s="23">
         <v>35300000</v>
       </c>
-      <c r="O4" s="44" cm="1">
-        <f t="array" aca="1" ref="O4" ca="1">INDIRECT(ADDRESS(I4+2,21))/(MAX(L4,M4,N4)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+      <c r="O4" s="66">
+        <f t="shared" ref="O4:O15" si="1">($U$3/((MAX(L4:N4))*$X$3*$Y$3*$Z$3*$AA$3)-1)</f>
         <v>7.9214198501769015</v>
       </c>
-      <c r="P4" s="44" cm="1">
-        <f t="array" aca="1" ref="P4" ca="1">INDIRECT(ADDRESS(I4+2,22))/(MAX(L4,M4,N4)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>7.9278049617992945</v>
+      <c r="P4" s="66">
+        <f>($V$3/((MAX(L4:N4))*$X$3*$Y$3*$Z$3*$AB$3))</f>
+        <v>8.9278049617992945</v>
       </c>
       <c r="Q4" s="28">
         <v>59.234569999999998</v>
@@ -1513,13 +1511,13 @@
       <c r="N5" s="23">
         <v>73300000</v>
       </c>
-      <c r="O5" s="44" cm="1">
-        <f t="array" aca="1" ref="O5" ca="1">INDIRECT(ADDRESS(I5+2,21))/(MAX(L5,M5,N5)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+      <c r="O5" s="66">
+        <f t="shared" si="1"/>
         <v>3.2964000097032002</v>
       </c>
-      <c r="P5" s="44" cm="1">
-        <f t="array" aca="1" ref="P5" ca="1">INDIRECT(ADDRESS(I5+2,22))/(MAX(L5,M5,N5)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>3.2994749679606432</v>
+      <c r="P5" s="66">
+        <f t="shared" ref="P5:P15" si="2">($V$3/((MAX(L5:N5))*$X$3*$Y$3*$Z$3*$AB$3))</f>
+        <v>4.2994749679606432</v>
       </c>
       <c r="Q5" s="28">
         <v>59.138280000000002</v>
@@ -1546,7 +1544,7 @@
       </c>
     </row>
     <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="65">
+      <c r="A6" s="52">
         <v>4</v>
       </c>
       <c r="B6" s="36" t="s">
@@ -1589,20 +1587,44 @@
       <c r="N6" s="23">
         <v>75700000</v>
       </c>
-      <c r="O6" s="44" cm="1">
-        <f t="array" aca="1" ref="O6" ca="1">INDIRECT(ADDRESS(I6+2,21))/(MAX(L6,M6,N6)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+      <c r="O6" s="66">
+        <f t="shared" si="1"/>
         <v>3.1601865351551464</v>
       </c>
-      <c r="P6" s="44" cm="1">
-        <f t="array" aca="1" ref="P6" ca="1">INDIRECT(ADDRESS(I6+2,22))/(MAX(L6,M6,N6)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>3.1631640046435283</v>
+      <c r="P6" s="66">
+        <f t="shared" si="2"/>
+        <v>4.1631640046435283</v>
       </c>
       <c r="Q6" s="28">
         <v>60.67895</v>
       </c>
+      <c r="T6">
+        <v>20</v>
+      </c>
+      <c r="U6">
+        <v>21</v>
+      </c>
+      <c r="V6">
+        <v>22</v>
+      </c>
+      <c r="X6">
+        <v>24</v>
+      </c>
+      <c r="Y6">
+        <v>25</v>
+      </c>
+      <c r="Z6">
+        <v>26</v>
+      </c>
+      <c r="AA6">
+        <v>27</v>
+      </c>
+      <c r="AB6">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="65">
+      <c r="A7" s="52">
         <v>5</v>
       </c>
       <c r="B7" s="36" t="s">
@@ -1645,13 +1667,13 @@
       <c r="N7" s="23">
         <v>66500000</v>
       </c>
-      <c r="O7" s="44" cm="1">
-        <f t="array" aca="1" ref="O7" ca="1">INDIRECT(ADDRESS(I7+2,21))/(MAX(L7,M7,N7)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+      <c r="O7" s="66">
+        <f t="shared" si="1"/>
         <v>3.7357311385149563</v>
       </c>
-      <c r="P7" s="44" cm="1">
-        <f t="array" aca="1" ref="P7" ca="1">INDIRECT(ADDRESS(I7+2,22))/(MAX(L7,M7,N7)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>3.7391205285942126</v>
+      <c r="P7" s="66">
+        <f t="shared" si="2"/>
+        <v>4.7391205285942126</v>
       </c>
       <c r="Q7" s="28">
         <v>57.854390000000002</v>
@@ -1701,13 +1723,13 @@
       <c r="N8" s="23">
         <v>99700000</v>
       </c>
-      <c r="O8" s="44" cm="1">
-        <f t="array" aca="1" ref="O8" ca="1">INDIRECT(ADDRESS(I8+2,21))/(MAX(L8,M8,N8)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+      <c r="O8" s="66">
+        <f t="shared" si="1"/>
         <v>2.1587374193705573</v>
       </c>
-      <c r="P8" s="44" cm="1">
-        <f t="array" aca="1" ref="P8" ca="1">INDIRECT(ADDRESS(I8+2,22))/(MAX(L8,M8,N8)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>2.1609981459530099</v>
+      <c r="P8" s="66">
+        <f t="shared" si="2"/>
+        <v>3.1609981459530099</v>
       </c>
       <c r="Q8" s="28">
         <v>57.30874</v>
@@ -1742,7 +1764,7 @@
       <c r="I9" s="11">
         <v>1</v>
       </c>
-      <c r="J9" s="58">
+      <c r="J9" s="47">
         <v>261.2817</v>
       </c>
       <c r="K9" s="43">
@@ -1757,13 +1779,13 @@
       <c r="N9" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="O9" s="44" cm="1">
-        <f t="array" aca="1" ref="O9" ca="1">INDIRECT(ADDRESS(I9+2,21))/(MAX(L9,M9,N9)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+      <c r="O9" s="66">
+        <f t="shared" si="1"/>
         <v>16.023033551959166</v>
       </c>
-      <c r="P9" s="44" cm="1">
-        <f t="array" aca="1" ref="P9" ca="1">INDIRECT(ADDRESS(I9+2,22))/(MAX(L9,M9,N9)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>16.03521703521703</v>
+      <c r="P9" s="66">
+        <f t="shared" si="2"/>
+        <v>17.03521703521703</v>
       </c>
       <c r="Q9" s="28">
         <v>58.977800000000002</v>
@@ -1813,17 +1835,18 @@
       <c r="N10" s="43">
         <v>76300000</v>
       </c>
-      <c r="O10" s="44" cm="1">
-        <f t="array" aca="1" ref="O10" ca="1">INDIRECT(ADDRESS(I10+2,21))/(MAX(L10,M10,N10)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+      <c r="O10" s="66">
+        <f t="shared" si="1"/>
         <v>3.1274720932011091</v>
       </c>
-      <c r="P10" s="44" cm="1">
-        <f t="array" aca="1" ref="P10" ca="1">INDIRECT(ADDRESS(I10+2,22))/(MAX(L10,M10,N10)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>3.130426148774772</v>
-      </c>
-      <c r="Q10" s="57">
+      <c r="P10" s="66">
+        <f t="shared" si="2"/>
+        <v>4.130426148774772</v>
+      </c>
+      <c r="Q10" s="46">
         <v>58.303750000000001</v>
       </c>
+      <c r="S10" s="65"/>
     </row>
     <row r="11" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
@@ -1854,7 +1877,7 @@
       <c r="I11" s="39">
         <v>1</v>
       </c>
-      <c r="J11" s="58">
+      <c r="J11" s="47">
         <v>195.05600000000001</v>
       </c>
       <c r="K11" s="43">
@@ -1869,13 +1892,13 @@
       <c r="N11" s="43">
         <v>68800000</v>
       </c>
-      <c r="O11" s="44" cm="1">
-        <f t="array" aca="1" ref="O11" ca="1">INDIRECT(ADDRESS(I11+2,21))/(MAX(L11,M11,N11)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+      <c r="O11" s="66">
+        <f t="shared" si="1"/>
         <v>3.5774145452215782</v>
       </c>
-      <c r="P11" s="44" cm="1">
-        <f t="array" aca="1" ref="P11" ca="1">INDIRECT(ADDRESS(I11+2,22))/(MAX(L11,M11,N11)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>3.5806906272022543</v>
+      <c r="P11" s="66">
+        <f t="shared" si="2"/>
+        <v>4.5806906272022543</v>
       </c>
       <c r="Q11" s="28">
         <v>62.12332</v>
@@ -1925,13 +1948,13 @@
       <c r="N12" s="43">
         <v>94100000</v>
       </c>
-      <c r="O12" s="44" cm="1">
-        <f t="array" aca="1" ref="O12" ca="1">INDIRECT(ADDRESS(I12+2,21))/(MAX(L12,M12,N12)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+      <c r="O12" s="66">
+        <f t="shared" si="1"/>
         <v>2.3467175420961164</v>
       </c>
-      <c r="P12" s="44" cm="1">
-        <f t="array" aca="1" ref="P12" ca="1">INDIRECT(ADDRESS(I12+2,22))/(MAX(L12,M12,N12)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>2.3491128071361858</v>
+      <c r="P12" s="66">
+        <f t="shared" si="2"/>
+        <v>3.3491128071361858</v>
       </c>
       <c r="Q12" s="28">
         <v>58.705399999999997</v>
@@ -1981,13 +2004,13 @@
       <c r="N13" s="43">
         <v>99600000</v>
       </c>
-      <c r="O13" s="44" cm="1">
-        <f t="array" aca="1" ref="O13" ca="1">INDIRECT(ADDRESS(I13+2,21))/(MAX(L13,M13,N13)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+      <c r="O13" s="66">
+        <f t="shared" si="1"/>
         <v>2.1619088424823749</v>
       </c>
-      <c r="P13" s="44" cm="1">
-        <f t="array" aca="1" ref="P13" ca="1">INDIRECT(ADDRESS(I13+2,22))/(MAX(L13,M13,N13)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>2.1641718388706335</v>
+      <c r="P13" s="66">
+        <f t="shared" si="2"/>
+        <v>3.1641718388706335</v>
       </c>
       <c r="Q13" s="28">
         <v>58.772889999999997</v>
@@ -2037,20 +2060,20 @@
       <c r="N14" s="43">
         <v>99100000</v>
       </c>
-      <c r="O14" s="44" cm="1">
-        <f t="array" aca="1" ref="O14" ca="1">INDIRECT(ADDRESS(I14+2,21))/(MAX(L14,M14,N14)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+      <c r="O14" s="66">
+        <f t="shared" si="1"/>
         <v>2.1778619647956061</v>
       </c>
-      <c r="P14" s="44" cm="1">
-        <f t="array" aca="1" ref="P14" ca="1">INDIRECT(ADDRESS(I14+2,22))/(MAX(L14,M14,N14)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>2.1801363789254804</v>
+      <c r="P14" s="66">
+        <f t="shared" si="2"/>
+        <v>3.1801363789254804</v>
       </c>
       <c r="Q14" s="28">
         <v>58.772889999999997</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="65">
+      <c r="A15" s="52">
         <v>13</v>
       </c>
       <c r="B15" s="32" t="s">
@@ -2093,15 +2116,15 @@
       <c r="N15" s="43">
         <v>103000000</v>
       </c>
-      <c r="O15" s="44" cm="1">
-        <f t="array" aca="1" ref="O15" ca="1">INDIRECT(ADDRESS(I15+2,21))/(MAX(L15,M15,N15)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+      <c r="O15" s="66">
+        <f t="shared" si="1"/>
         <v>2.0575351525363561</v>
       </c>
-      <c r="P15" s="44" cm="1">
-        <f t="array" aca="1" ref="P15" ca="1">INDIRECT(ADDRESS(I15+2,22))/(MAX(L15,M15,N15)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>2.0597234480729627</v>
-      </c>
-      <c r="Q15" s="60">
+      <c r="P15" s="66">
+        <f t="shared" si="2"/>
+        <v>3.0597234480729627</v>
+      </c>
+      <c r="Q15" s="49">
         <v>55.831389999999999</v>
       </c>
     </row>
@@ -2150,15 +2173,15 @@
       <c r="N16" s="43">
         <v>91000000</v>
       </c>
-      <c r="O16" s="59" cm="1">
-        <f t="array" aca="1" ref="O16" ca="1">INDIRECT(ADDRESS(I16+2,21))/(MAX(L16,M16,N16)*INDIRECT(ADDRESS(5,24))*INDIRECT(ADDRESS(5,25))*INDIRECT(ADDRESS(5,26))*INDIRECT(ADDRESS(5,27))) -1</f>
+      <c r="O16" s="48">
+        <f>($U$4/((MAX(L16:N16))*$X$3*$Y$3*$Z$3*$AA$3)-1)</f>
         <v>3.2025825414254916E-2</v>
       </c>
-      <c r="P16" s="64" cm="1">
-        <f t="array" aca="1" ref="P16" ca="1">INDIRECT(ADDRESS(I16+2,22))/(MAX(L16,M16,N16)*INDIRECT(ADDRESS(5,24))*INDIRECT(ADDRESS(5,25))*INDIRECT(ADDRESS(5,26))*INDIRECT(ADDRESS(5,28))) -1</f>
-        <v>-3.1271758544485939E-2</v>
-      </c>
-      <c r="Q16" s="57">
+      <c r="P16" s="44">
+        <f>($V$4/((MAX(L16:N16))*$X$3*$Y$3*$Z$3*$AB$3))</f>
+        <v>0.96872824145551406</v>
+      </c>
+      <c r="Q16" s="46">
         <v>54.902009999999997</v>
       </c>
     </row>
@@ -2207,20 +2230,20 @@
       <c r="N17" s="43">
         <v>118000000</v>
       </c>
-      <c r="O17" s="59" cm="1">
-        <f t="array" aca="1" ref="O17" ca="1">INDIRECT(ADDRESS(I17+2,21))/(MAX(L17,M17,N17)*INDIRECT(ADDRESS(5,24))*INDIRECT(ADDRESS(5,25))*INDIRECT(ADDRESS(5,26))*INDIRECT(ADDRESS(5,27))) -1</f>
+      <c r="O17" s="51">
+        <f t="shared" ref="O17:O19" si="3">($U$4/((MAX(L17:N17))*$X$3*$Y$3*$Z$3*$AA$3)-1)</f>
         <v>-0.20411567701104061</v>
       </c>
-      <c r="P17" s="64" cm="1">
-        <f t="array" aca="1" ref="P17" ca="1">INDIRECT(ADDRESS(I17+2,22))/(MAX(L17,M17,N17)*INDIRECT(ADDRESS(5,24))*INDIRECT(ADDRESS(5,25))*INDIRECT(ADDRESS(5,26))*INDIRECT(ADDRESS(5,28))) -1</f>
-        <v>-0.25292991548769672</v>
+      <c r="P17" s="44">
+        <f t="shared" ref="P17:P19" si="4">($V$4/((MAX(L17:N17))*$X$3*$Y$3*$Z$3*$AB$3))</f>
+        <v>0.74707008451230328</v>
       </c>
       <c r="Q17" s="28">
         <v>54.110509999999998</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="61">
+      <c r="A18" s="50">
         <v>16</v>
       </c>
       <c r="B18" s="32" t="s">
@@ -2264,15 +2287,15 @@
       <c r="N18" s="43">
         <v>86900000</v>
       </c>
-      <c r="O18" s="59" cm="1">
-        <f t="array" aca="1" ref="O18" ca="1">INDIRECT(ADDRESS(I18+2,21))/(MAX(L18,M18,N18)*INDIRECT(ADDRESS(5,24))*INDIRECT(ADDRESS(5,25))*INDIRECT(ADDRESS(5,26))*INDIRECT(ADDRESS(5,27))) -1</f>
+      <c r="O18" s="48">
+        <f t="shared" si="3"/>
         <v>8.0717492666250834E-2</v>
       </c>
-      <c r="P18" s="59" cm="1">
-        <f t="array" aca="1" ref="P18" ca="1">INDIRECT(ADDRESS(I18+2,22))/(MAX(L18,M18,N18)*INDIRECT(ADDRESS(5,24))*INDIRECT(ADDRESS(5,25))*INDIRECT(ADDRESS(5,26))*INDIRECT(ADDRESS(5,28))) -1</f>
-        <v>1.4433486449387578E-2</v>
-      </c>
-      <c r="Q18" s="60">
+      <c r="P18" s="44">
+        <f t="shared" si="4"/>
+        <v>1.0144334864493876</v>
+      </c>
+      <c r="Q18" s="49">
         <v>55.706099999999999</v>
       </c>
     </row>
@@ -2321,13 +2344,13 @@
       <c r="N19" s="43">
         <v>115000000</v>
       </c>
-      <c r="O19" s="62" cm="1">
-        <f t="array" aca="1" ref="O19" ca="1">INDIRECT(ADDRESS(I19+2,21))/(MAX(L19,M19,N19)*INDIRECT(ADDRESS(5,24))*INDIRECT(ADDRESS(5,25))*INDIRECT(ADDRESS(5,26))*INDIRECT(ADDRESS(5,27))) -1</f>
+      <c r="O19" s="51">
+        <f t="shared" si="3"/>
         <v>-0.18335347728089368</v>
       </c>
-      <c r="P19" s="63" cm="1">
-        <f t="array" aca="1" ref="P19" ca="1">INDIRECT(ADDRESS(I19+2,22))/(MAX(L19,M19,N19)*INDIRECT(ADDRESS(5,24))*INDIRECT(ADDRESS(5,25))*INDIRECT(ADDRESS(5,26))*INDIRECT(ADDRESS(5,28))) -1</f>
-        <v>-0.23344113067433225</v>
+      <c r="P19" s="44">
+        <f t="shared" si="4"/>
+        <v>0.76655886932566775</v>
       </c>
       <c r="Q19" s="28">
         <v>55.367440000000002</v>
